--- a/xlsx/a69_f05UPPachuca.xlsx
+++ b/xlsx/a69_f05UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Desktop\3ER Trimestre de las 48 Fracciones Comunes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\EVALUACIÓN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -193,27 +193,33 @@
     <t>Descendente</t>
   </si>
   <si>
+    <t>Contribuir a la conclusión de la Educación Superior de los jóvenes inscritos en las Instituciones Públicas de Educación Superior, sectorizadas a la Secretaria de Educación Pública de Hidalgo con el otorgamiento de servicios educativos con pertinencia y calidad.</t>
+  </si>
+  <si>
+    <t>Porcentaje de Eficiencia Terminal en Educación Superior</t>
+  </si>
+  <si>
+    <t>Eficacia</t>
+  </si>
+  <si>
+    <t>Mide el número de estudiantes que concluyen sus estudios de educación superior por cohorte generacional, con la finalidad de que los jóvenes puedan acceder a mejores oportunidades de empleo  acordes a su perfil de egreso y de esta manera apoyar el bienestar familiar y el de la región.</t>
+  </si>
+  <si>
+    <t>(Estudiantes Egresados de una Cohorte (EEC)/Estudiantes de Nuevo Ingreso base de la Cohorte (ENIBC)) x 100)</t>
+  </si>
+  <si>
+    <t>Estudiante</t>
+  </si>
+  <si>
+    <t>Anual (Ciclo Escolar)</t>
+  </si>
+  <si>
+    <t>http://sep.hidalgo.gob.mx/content/acerca/superior/dges/</t>
+  </si>
+  <si>
     <t>Universidad Politecnica de Pachuca (UPP)</t>
   </si>
   <si>
-    <t>Contribuir a la conclusión de la Educación Superior de los jóvenes inscritos en las Instituciones Públicas de Educación Superior, sectorizadas a la Secretaria de Educación Pública de Hidalgo con el otorgamiento de servicios educativos con pertinencia y calidad.</t>
-  </si>
-  <si>
-    <t>Porcentaje de Eficiencia Terminal en Educación Superior</t>
-  </si>
-  <si>
-    <t>Mide el número de estudiantes que concluyen sus estudios de educación superior por cohorte generacional, con la finalidad de que los jóvenes puedan acceder a mejores oportunidades de empleo  acordes a su perfil de egreso y de esta manera apoyar el bienestar familiar y el de la región.</t>
-  </si>
-  <si>
-    <t>(Estudiantes Egresados de una Cohorte (EEC)/Estudiantes de Nuevo Ingreso base de la Cohorte (ENIBC)) x 100)</t>
-  </si>
-  <si>
-    <t>Estudiante</t>
-  </si>
-  <si>
-    <t>Anual (Ciclo Escolar)</t>
-  </si>
-  <si>
     <t>Alumnos egresados de la educación media superior cuentan con opciones para recibir educación superior con calidad y pertinencia en las Instituciones Públicas de Educación Superior, sectorizadas a la Secretaria de Educación Pública de Hidalgo.</t>
   </si>
   <si>
@@ -226,13 +232,7 @@
     <t>(Número de Estudiantes de Nuevo Ingreso a Educación Superior en Ciclo Escolar t/Total de Estudiantes Egresados de Educación Media Superior en el Ciclo Escolar t-1 ) x 100)</t>
   </si>
   <si>
-    <t>Las metas ajustadass y el avance, se reportartan al cierre del ejercicio 2020</t>
-  </si>
-  <si>
-    <t>http://sep.hidalgo.gob.mx/content/acerca/superior/dges/</t>
-  </si>
-  <si>
-    <t>Eficacia</t>
+    <t>Los criterios que se observan vacios es por que este Organismo no los genera; el avance de las meta, se reporta al cierre del ejercico 2020 cuando la Subsecretaria de Educación Media Superior y Superior lo turne.</t>
   </si>
 </sst>
 </file>
@@ -330,7 +330,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -350,26 +350,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -654,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P2" workbookViewId="0">
-      <selection activeCell="U2" sqref="T2:U3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,11 +664,11 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.140625" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="7" max="7" width="44.140625" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
@@ -675,11 +676,11 @@
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="53.5703125" customWidth="1"/>
     <col min="17" max="17" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" customWidth="1"/>
+    <col min="20" max="20" width="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -688,44 +689,42 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:20" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -789,7 +788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -852,109 +851,109 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="14" t="s">
         <v>52</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2020</v>
       </c>
       <c r="B8" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C8" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>59</v>
@@ -980,45 +979,45 @@
         <v>54</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="R8" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="S8" s="3">
-        <v>44114</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>67</v>
+        <v>44206</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2020</v>
       </c>
       <c r="B9" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C9" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>61</v>
@@ -1038,19 +1037,19 @@
         <v>54</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="R9" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="S9" s="3">
-        <v>44114</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>67</v>
+        <v>44206</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1060,11 +1059,11 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G2:K2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O200">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O9">
       <formula1>Hidden_114</formula1>
     </dataValidation>
   </dataValidations>
@@ -1073,7 +1072,6 @@
     <hyperlink ref="P9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1081,17 +1079,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="15" t="s">
         <v>55</v>
       </c>
     </row>

--- a/xlsx/a69_f05UPPachuca.xlsx
+++ b/xlsx/a69_f05UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\EVALUACIÓN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="108">
   <si>
     <t>44212</t>
   </si>
@@ -196,6 +196,9 @@
     <t>Contribuir a la conclusión de la Educación Superior de los jóvenes inscritos en las Instituciones Públicas de Educación Superior, sectorizadas a la Secretaria de Educación Pública de Hidalgo con el otorgamiento de servicios educativos con pertinencia y calidad.</t>
   </si>
   <si>
+    <t>Alumnos egresados de la educación media superior cuentan con opciones para recibir educación superior con calidad y pertinencia en las Instituciones Públicas de Educación Superior, sectorizadas a la Secretaria de Educación Pública de Hidalgo.</t>
+  </si>
+  <si>
     <t>Porcentaje de Eficiencia Terminal en Educación Superior</t>
   </si>
   <si>
@@ -205,9 +208,6 @@
     <t>Mide el número de estudiantes que concluyen sus estudios de educación superior por cohorte generacional, con la finalidad de que los jóvenes puedan acceder a mejores oportunidades de empleo  acordes a su perfil de egreso y de esta manera apoyar el bienestar familiar y el de la región.</t>
   </si>
   <si>
-    <t>(Estudiantes Egresados de una Cohorte (EEC)/Estudiantes de Nuevo Ingreso base de la Cohorte (ENIBC)) x 100)</t>
-  </si>
-  <si>
     <t>Estudiante</t>
   </si>
   <si>
@@ -217,12 +217,6 @@
     <t>http://sep.hidalgo.gob.mx/content/acerca/superior/dges/</t>
   </si>
   <si>
-    <t>Universidad Politecnica de Pachuca (UPP)</t>
-  </si>
-  <si>
-    <t>Alumnos egresados de la educación media superior cuentan con opciones para recibir educación superior con calidad y pertinencia en las Instituciones Públicas de Educación Superior, sectorizadas a la Secretaria de Educación Pública de Hidalgo.</t>
-  </si>
-  <si>
     <t>Porcentaje de Absorción en Educación Superior</t>
   </si>
   <si>
@@ -232,7 +226,130 @@
     <t>(Número de Estudiantes de Nuevo Ingreso a Educación Superior en Ciclo Escolar t/Total de Estudiantes Egresados de Educación Media Superior en el Ciclo Escolar t-1 ) x 100)</t>
   </si>
   <si>
-    <t>Los criterios que se observan vacios es por que este Organismo no los genera; el avance de las meta, se reporta al cierre del ejercico 2020 cuando la Subsecretaria de Educación Media Superior y Superior lo turne.</t>
+    <t xml:space="preserve">Alumnos egresados de la educación media superior cuentan con opciones para recibir educación superior con calidad y pertinencia en las Instituciones Públicas de Educación Superior, </t>
+  </si>
+  <si>
+    <t>Porcentaje de acciones que contribuyen al incremento de la matrícula y calidad de la oferta educativa</t>
+  </si>
+  <si>
+    <t>(Estudiantes Egresados de una Cohorte (EEC)/Estudiantes de Nuevo Ingreso base de la Cohorte (ENIBC)) x 100</t>
+  </si>
+  <si>
+    <t>(Número de Estudiantes de Nuevo Ingreso a Educación Superior en Ciclo Escolar t/Total de Estudiantes Egresados de Educación Media Superior en el Ciclo Escolar t-1 ) x 100</t>
+  </si>
+  <si>
+    <t>Acción</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/3esp/index.php/instituci%C3%B3n/evaluaci%C3%B3n_PID.pdf</t>
+  </si>
+  <si>
+    <t>Secretaría Académica (UPP)</t>
+  </si>
+  <si>
+    <t>Porcentaje de proyectos concluidos de investigación o transferencia tecnológica</t>
+  </si>
+  <si>
+    <t>Mide el porcentaje de proyectos concluidos de investigación con respecto al total de proyectos de investigación o transferencia tecnológica en los que participa la institución.</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>La línea base corresponde al ciclo escolar 2019-2020  que comprende del 1° de septiembre de 2019 al 31 de agosto de 2020.
+El avance de la meta corresponde al ciclo escolar 2020-2021 (1° de septiembre al 31 de diciembre de 2020)</t>
+  </si>
+  <si>
+    <t>1. Incrementar la cobertura y calidad de la oferta educativa en el estado de Hidalgo.</t>
+  </si>
+  <si>
+    <t>Docente</t>
+  </si>
+  <si>
+    <t>Porcentaje de cumplimiento del programa orientado a disminuir las brechas de desigualdad entre hombres y mujeres</t>
+  </si>
+  <si>
+    <t>Mide el porcentaje de acciones orientadas a  disminuir las brechas de desigualdad entre hombres y mujeres</t>
+  </si>
+  <si>
+    <t>T1. Fomentar la igualdad entre hombres y mujeres en la comunidad universitaria para cerrar las brechas de genero que limitan el desarrollo  académico o profesional</t>
+  </si>
+  <si>
+    <t>Dirección de Comunicación Social (UPP)</t>
+  </si>
+  <si>
+    <t>Cuatrimestral</t>
+  </si>
+  <si>
+    <t>T2. Promover el desarrollo de los valores éticos y bioéticos impactando en la mejora de la convivencia escolar y e su entorno.</t>
+  </si>
+  <si>
+    <t>Porcentaje de acciones cumplidas de acuerdo a lo establecido en el Eje de Sana Convivencia del Consejo Técnico Escolar de Educación Superior (CTEES)</t>
+  </si>
+  <si>
+    <t>Mide el número de acciones implementadas para mejorar la convivencia en la comunidad universitaria.</t>
+  </si>
+  <si>
+    <t>(Total de acciones cumplidas en el eje de ambiente de Sana Convivencia del Consejo Técnico Escolar de Educación Superior (CTEES)/  Total de acciones definidas en  el eje de ambiente de Sana Convivencia del Consejo Técnico Escolar de Educación Superior (CTEES))x100</t>
+  </si>
+  <si>
+    <t>Universidad Politécnica de Pachuca (UPP)</t>
+  </si>
+  <si>
+    <t>La información proporcionada  en las columna de metas ajustadas y avance de las metas es el cierre del ejercicio 2020, cabe mencionar que la proporcionada por la Subsecretaria de Educación Media Superior y Superior en el Sistema Integrador de Ingresos, Programación, Presupuesto y Evaluación del Desempeño (SIPPED)</t>
+  </si>
+  <si>
+    <t>Los criterios que se observan vacíos es por que este Organismo no los genera; el avance de las meta, se reporta al cierre del ejercicio 2021 cuando la Subsecretaria de Educación Media Superior y Superior lo turne.</t>
+  </si>
+  <si>
+    <t>Mide el porcentaje de acciones que contribuye al incremento de la matrícula y calidad de la oferta educativa que tiene la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>(Total de acciones realizadas que contribuyen al incremento de la matrícula y calidad de la oferta educativa /  Total de acciones definidas que contribuyen al incremento de la matrícula y calidad de la oferta )x100</t>
+  </si>
+  <si>
+    <t>2. Impulsar la investigación, la innovación, el desarrollo y transferencia de tecnología e internacionalización como ejes rectores para la consolidación de la universidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Total de proyectos concluidos de investigación o transferencia tecnológica / Total de proyectos de investigación o transferencia de  tecnología en los que participa la institución )x100 </t>
+  </si>
+  <si>
+    <t>La línea base corresponde al  ejercicio fiscal 2020
+El avance de la meta del 1er trimestre se efectúa durante el mes de abril.</t>
+  </si>
+  <si>
+    <t>3. Fortalecer la gestión y profesionalización del personal para la mejora continua</t>
+  </si>
+  <si>
+    <t>Porcentaje de personal docente que obtiene resultados aprobatorios en las evaluaciones</t>
+  </si>
+  <si>
+    <t>Mide el número de docentes que en las evaluaciones obtienen resultados aprobatorios</t>
+  </si>
+  <si>
+    <t>(Total de docentes con resultados aprobatorios/ Total de docentes evaluados)x100</t>
+  </si>
+  <si>
+    <t>La línea base corresponde al ciclo escolar 2019-2020  que comprende del 1° de septiembre de 2019 al 31 de agosto de 2020.
+El avance de la meta se efectúa durante el mes de abril.</t>
+  </si>
+  <si>
+    <t>(Total de  acciones orientadas a  disminuir las brechas de desigualdad entre hombres y mujeres realizadas/ Total de  acciones orientadas a  disminuir las brechas de desigualdad entre hombres y mujeres definidas)x100</t>
+  </si>
+  <si>
+    <t>T3. Impulsar la innovación educativa integrando la ciencia y la tecnología en los procesos de formación</t>
+  </si>
+  <si>
+    <t>Porcentaje de acciones educativas innovadoras  emitidas por las Academias Estáteles aplicadas en la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>Mide el porcentaje de acciones educativas e innovadoras, resultados de propuestas emitidas por las Academias Estáteles,  seleccionadas por la Secretaría de Educación Pública de Hidalgo para aplicarse al entorno escolar después de un proceso de análisis de las conveniencias de su impacto positivo, para la obtención de los aprendizajes que fomenten la innovación de los estudiantes y que favorezcan la articulación de programas estratégicos.</t>
+  </si>
+  <si>
+    <t>(Total de  acciones educativas innovadoras aplicadas/ Total de  acciones educativas innovadoras definidas y de competencia de la universidad)x100</t>
   </si>
 </sst>
 </file>
@@ -252,11 +369,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -330,7 +449,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -341,6 +460,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -349,6 +469,20 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,10 +501,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -653,9 +786,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
@@ -664,11 +797,11 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.140625" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
@@ -676,11 +809,11 @@
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="53.5703125" customWidth="1"/>
+    <col min="16" max="16" width="59.28515625" customWidth="1"/>
     <col min="17" max="17" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="42" customWidth="1"/>
+    <col min="20" max="20" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -689,42 +822,48 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:20" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="1:20" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -788,7 +927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -851,205 +990,689 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="1" t="s">
         <v>52</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C8" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="4" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <v>0.68600000000000005</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="5">
         <v>10200</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="M8" s="13">
+        <v>9264</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0.7772</v>
+      </c>
       <c r="O8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R8" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S8" s="3">
+        <v>44298</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="R8" s="3">
-        <v>44206</v>
-      </c>
-      <c r="S8" s="3">
-        <v>44206</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C9" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="5">
-        <v>0.3851</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="K9" s="6">
+        <v>0.46760000000000002</v>
+      </c>
+      <c r="L9" s="5">
         <v>13758</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="M9" s="13">
+        <v>12799</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0.34660000000000002</v>
+      </c>
       <c r="O9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R9" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S9" s="3">
+        <v>44298</v>
+      </c>
+      <c r="T9" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0.7772</v>
+      </c>
+      <c r="L10" s="2">
+        <v>10500</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R10" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S10" s="3">
+        <v>44298</v>
+      </c>
+      <c r="T10" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="4" customFormat="1" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="R9" s="3">
-        <v>44206</v>
-      </c>
-      <c r="S9" s="3">
-        <v>44206</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>69</v>
+      <c r="F11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="L11" s="2">
+        <v>16000</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S11" s="3">
+        <v>44298</v>
+      </c>
+      <c r="T11" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="L12" s="8">
+        <v>5</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R12" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S12" s="3">
+        <v>44298</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="L13" s="8">
+        <v>30</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="10">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R13" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S13" s="3">
+        <v>44298</v>
+      </c>
+      <c r="T13" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="L14" s="8">
+        <v>160</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S14" s="3">
+        <v>44298</v>
+      </c>
+      <c r="T14" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="L15" s="8">
+        <v>4</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="10">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R15" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S15" s="3">
+        <v>44298</v>
+      </c>
+      <c r="T15" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="10">
+        <v>1</v>
+      </c>
+      <c r="L16" s="8">
+        <v>4</v>
+      </c>
+      <c r="M16" s="8"/>
+      <c r="N16" s="10">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R16" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S16" s="3">
+        <v>44298</v>
+      </c>
+      <c r="T16" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="255" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="10">
+        <v>1</v>
+      </c>
+      <c r="L17" s="10">
+        <v>1</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="10">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R17" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S17" s="3">
+        <v>44298</v>
+      </c>
+      <c r="T17" s="21" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1059,19 +1682,24 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="G2:N2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O79">
       <formula1>Hidden_114</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="P8" r:id="rId1"/>
     <hyperlink ref="P9" r:id="rId2"/>
+    <hyperlink ref="P10" r:id="rId3"/>
+    <hyperlink ref="P11" r:id="rId4"/>
+    <hyperlink ref="P12" r:id="rId5"/>
+    <hyperlink ref="P13:P17" r:id="rId6" display="http://www.upp.edu.mx/3esp/index.php/instituci%C3%B3n/evaluaci%C3%B3n_PID.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1080,21 +1708,18 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A3" sqref="A3:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" t="s">
         <v>55</v>
       </c>
     </row>

--- a/xlsx/a69_f05UPPachuca.xlsx
+++ b/xlsx/a69_f05UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="104">
   <si>
     <t>44212</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Contribuir a la conclusión de la Educación Superior de los jóvenes inscritos en las Instituciones Públicas de Educación Superior, sectorizadas a la Secretaria de Educación Pública de Hidalgo con el otorgamiento de servicios educativos con pertinencia y calidad.</t>
   </si>
   <si>
-    <t>Alumnos egresados de la educación media superior cuentan con opciones para recibir educación superior con calidad y pertinencia en las Instituciones Públicas de Educación Superior, sectorizadas a la Secretaria de Educación Pública de Hidalgo.</t>
-  </si>
-  <si>
     <t>Porcentaje de Eficiencia Terminal en Educación Superior</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t>Mide la totalidad de estudiantes de nuevo ingreso a la educación superior, con la finalidad de conocer cuántos de los jóvenes egresados de educación media superior son aceptados para  recibir educación pertinente y de calidad en las Instituciones Públicas de Educación Superior, sectorizadas a la Secretaria de Educación Pública de Hidalgo.</t>
   </si>
   <si>
-    <t>(Número de Estudiantes de Nuevo Ingreso a Educación Superior en Ciclo Escolar t/Total de Estudiantes Egresados de Educación Media Superior en el Ciclo Escolar t-1 ) x 100)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alumnos egresados de la educación media superior cuentan con opciones para recibir educación superior con calidad y pertinencia en las Instituciones Públicas de Educación Superior, </t>
   </si>
   <si>
@@ -259,104 +253,97 @@
     <t>Anual</t>
   </si>
   <si>
+    <t>1. Incrementar la cobertura y calidad de la oferta educativa en el estado de Hidalgo.</t>
+  </si>
+  <si>
+    <t>Docente</t>
+  </si>
+  <si>
+    <t>Porcentaje de cumplimiento del programa orientado a disminuir las brechas de desigualdad entre hombres y mujeres</t>
+  </si>
+  <si>
+    <t>Mide el porcentaje de acciones orientadas a  disminuir las brechas de desigualdad entre hombres y mujeres</t>
+  </si>
+  <si>
+    <t>T1. Fomentar la igualdad entre hombres y mujeres en la comunidad universitaria para cerrar las brechas de genero que limitan el desarrollo  académico o profesional</t>
+  </si>
+  <si>
+    <t>Dirección de Comunicación Social (UPP)</t>
+  </si>
+  <si>
+    <t>Cuatrimestral</t>
+  </si>
+  <si>
+    <t>T2. Promover el desarrollo de los valores éticos y bioéticos impactando en la mejora de la convivencia escolar y e su entorno.</t>
+  </si>
+  <si>
+    <t>Porcentaje de acciones cumplidas de acuerdo a lo establecido en el Eje de Sana Convivencia del Consejo Técnico Escolar de Educación Superior (CTEES)</t>
+  </si>
+  <si>
+    <t>Mide el número de acciones implementadas para mejorar la convivencia en la comunidad universitaria.</t>
+  </si>
+  <si>
+    <t>(Total de acciones cumplidas en el eje de ambiente de Sana Convivencia del Consejo Técnico Escolar de Educación Superior (CTEES)/  Total de acciones definidas en  el eje de ambiente de Sana Convivencia del Consejo Técnico Escolar de Educación Superior (CTEES))x100</t>
+  </si>
+  <si>
+    <t>Universidad Politécnica de Pachuca (UPP)</t>
+  </si>
+  <si>
+    <t>Los criterios que se observan vacíos es por que este Organismo no los genera; el avance de las meta, se reporta al cierre del ejercicio 2021 cuando la Subsecretaria de Educación Media Superior y Superior lo turne.</t>
+  </si>
+  <si>
+    <t>Mide el porcentaje de acciones que contribuye al incremento de la matrícula y calidad de la oferta educativa que tiene la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>(Total de acciones realizadas que contribuyen al incremento de la matrícula y calidad de la oferta educativa /  Total de acciones definidas que contribuyen al incremento de la matrícula y calidad de la oferta )x100</t>
+  </si>
+  <si>
+    <t>2. Impulsar la investigación, la innovación, el desarrollo y transferencia de tecnología e internacionalización como ejes rectores para la consolidación de la universidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Total de proyectos concluidos de investigación o transferencia tecnológica / Total de proyectos de investigación o transferencia de  tecnología en los que participa la institución )x100 </t>
+  </si>
+  <si>
+    <t>3. Fortalecer la gestión y profesionalización del personal para la mejora continua</t>
+  </si>
+  <si>
+    <t>Porcentaje de personal docente que obtiene resultados aprobatorios en las evaluaciones</t>
+  </si>
+  <si>
+    <t>Mide el número de docentes que en las evaluaciones obtienen resultados aprobatorios</t>
+  </si>
+  <si>
+    <t>(Total de docentes con resultados aprobatorios/ Total de docentes evaluados)x100</t>
+  </si>
+  <si>
+    <t>(Total de  acciones orientadas a  disminuir las brechas de desigualdad entre hombres y mujeres realizadas/ Total de  acciones orientadas a  disminuir las brechas de desigualdad entre hombres y mujeres definidas)x100</t>
+  </si>
+  <si>
+    <t>T3. Impulsar la innovación educativa integrando la ciencia y la tecnología en los procesos de formación</t>
+  </si>
+  <si>
+    <t>Porcentaje de acciones educativas innovadoras  emitidas por las Academias Estáteles aplicadas en la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>Mide el porcentaje de acciones educativas e innovadoras, resultados de propuestas emitidas por las Academias Estáteles,  seleccionadas por la Secretaría de Educación Pública de Hidalgo para aplicarse al entorno escolar después de un proceso de análisis de las conveniencias de su impacto positivo, para la obtención de los aprendizajes que fomenten la innovación de los estudiantes y que favorezcan la articulación de programas estratégicos.</t>
+  </si>
+  <si>
+    <t>(Total de  acciones educativas innovadoras aplicadas/ Total de  acciones educativas innovadoras definidas y de competencia de la universidad)x100</t>
+  </si>
+  <si>
     <t>La línea base corresponde al ciclo escolar 2019-2020  que comprende del 1° de septiembre de 2019 al 31 de agosto de 2020.
-El avance de la meta corresponde al ciclo escolar 2020-2021 (1° de septiembre al 31 de diciembre de 2020)</t>
-  </si>
-  <si>
-    <t>1. Incrementar la cobertura y calidad de la oferta educativa en el estado de Hidalgo.</t>
-  </si>
-  <si>
-    <t>Docente</t>
-  </si>
-  <si>
-    <t>Porcentaje de cumplimiento del programa orientado a disminuir las brechas de desigualdad entre hombres y mujeres</t>
-  </si>
-  <si>
-    <t>Mide el porcentaje de acciones orientadas a  disminuir las brechas de desigualdad entre hombres y mujeres</t>
-  </si>
-  <si>
-    <t>T1. Fomentar la igualdad entre hombres y mujeres en la comunidad universitaria para cerrar las brechas de genero que limitan el desarrollo  académico o profesional</t>
-  </si>
-  <si>
-    <t>Dirección de Comunicación Social (UPP)</t>
-  </si>
-  <si>
-    <t>Cuatrimestral</t>
-  </si>
-  <si>
-    <t>T2. Promover el desarrollo de los valores éticos y bioéticos impactando en la mejora de la convivencia escolar y e su entorno.</t>
-  </si>
-  <si>
-    <t>Porcentaje de acciones cumplidas de acuerdo a lo establecido en el Eje de Sana Convivencia del Consejo Técnico Escolar de Educación Superior (CTEES)</t>
-  </si>
-  <si>
-    <t>Mide el número de acciones implementadas para mejorar la convivencia en la comunidad universitaria.</t>
-  </si>
-  <si>
-    <t>(Total de acciones cumplidas en el eje de ambiente de Sana Convivencia del Consejo Técnico Escolar de Educación Superior (CTEES)/  Total de acciones definidas en  el eje de ambiente de Sana Convivencia del Consejo Técnico Escolar de Educación Superior (CTEES))x100</t>
-  </si>
-  <si>
-    <t>Universidad Politécnica de Pachuca (UPP)</t>
-  </si>
-  <si>
-    <t>La información proporcionada  en las columna de metas ajustadas y avance de las metas es el cierre del ejercicio 2020, cabe mencionar que la proporcionada por la Subsecretaria de Educación Media Superior y Superior en el Sistema Integrador de Ingresos, Programación, Presupuesto y Evaluación del Desempeño (SIPPED)</t>
-  </si>
-  <si>
-    <t>Los criterios que se observan vacíos es por que este Organismo no los genera; el avance de las meta, se reporta al cierre del ejercicio 2021 cuando la Subsecretaria de Educación Media Superior y Superior lo turne.</t>
-  </si>
-  <si>
-    <t>Mide el porcentaje de acciones que contribuye al incremento de la matrícula y calidad de la oferta educativa que tiene la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>(Total de acciones realizadas que contribuyen al incremento de la matrícula y calidad de la oferta educativa /  Total de acciones definidas que contribuyen al incremento de la matrícula y calidad de la oferta )x100</t>
-  </si>
-  <si>
-    <t>2. Impulsar la investigación, la innovación, el desarrollo y transferencia de tecnología e internacionalización como ejes rectores para la consolidación de la universidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Total de proyectos concluidos de investigación o transferencia tecnológica / Total de proyectos de investigación o transferencia de  tecnología en los que participa la institución )x100 </t>
+El avance de la meta corresponde al ciclo escolar 2020-2021 (1° de septiembre al 31 de marzo de 2021)</t>
   </si>
   <si>
     <t>La línea base corresponde al  ejercicio fiscal 2020
-El avance de la meta del 1er trimestre se efectúa durante el mes de abril.</t>
-  </si>
-  <si>
-    <t>3. Fortalecer la gestión y profesionalización del personal para la mejora continua</t>
-  </si>
-  <si>
-    <t>Porcentaje de personal docente que obtiene resultados aprobatorios en las evaluaciones</t>
-  </si>
-  <si>
-    <t>Mide el número de docentes que en las evaluaciones obtienen resultados aprobatorios</t>
-  </si>
-  <si>
-    <t>(Total de docentes con resultados aprobatorios/ Total de docentes evaluados)x100</t>
-  </si>
-  <si>
-    <t>La línea base corresponde al ciclo escolar 2019-2020  que comprende del 1° de septiembre de 2019 al 31 de agosto de 2020.
-El avance de la meta se efectúa durante el mes de abril.</t>
-  </si>
-  <si>
-    <t>(Total de  acciones orientadas a  disminuir las brechas de desigualdad entre hombres y mujeres realizadas/ Total de  acciones orientadas a  disminuir las brechas de desigualdad entre hombres y mujeres definidas)x100</t>
-  </si>
-  <si>
-    <t>T3. Impulsar la innovación educativa integrando la ciencia y la tecnología en los procesos de formación</t>
-  </si>
-  <si>
-    <t>Porcentaje de acciones educativas innovadoras  emitidas por las Academias Estáteles aplicadas en la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>Mide el porcentaje de acciones educativas e innovadoras, resultados de propuestas emitidas por las Academias Estáteles,  seleccionadas por la Secretaría de Educación Pública de Hidalgo para aplicarse al entorno escolar después de un proceso de análisis de las conveniencias de su impacto positivo, para la obtención de los aprendizajes que fomenten la innovación de los estudiantes y que favorezcan la articulación de programas estratégicos.</t>
-  </si>
-  <si>
-    <t>(Total de  acciones educativas innovadoras aplicadas/ Total de  acciones educativas innovadoras definidas y de competencia de la universidad)x100</t>
+El avance de la meta correspnde al del 1er trimestre.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -378,19 +365,25 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -444,45 +437,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -501,14 +466,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -786,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,10 +779,10 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
     <col min="5" max="5" width="28.140625" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.5703125" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -809,11 +791,11 @@
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="59.28515625" customWidth="1"/>
+    <col min="16" max="16" width="85.5703125" customWidth="1"/>
     <col min="17" max="17" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.7109375" customWidth="1"/>
+    <col min="20" max="20" width="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -822,48 +804,48 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="19" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-    </row>
-    <row r="3" spans="1:20" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="17" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -927,7 +909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="10.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -990,28 +972,28 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1075,604 +1057,480 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:20" s="2" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>2021</v>
       </c>
-      <c r="B8" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="11">
+        <v>44287</v>
+      </c>
+      <c r="C8" s="11">
+        <v>44377</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="J8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0.7772</v>
+      </c>
+      <c r="L8" s="10">
+        <v>10500</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="11">
+        <v>44386</v>
+      </c>
+      <c r="S8" s="11">
+        <v>44386</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44287</v>
+      </c>
+      <c r="C9" s="11">
+        <v>44377</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="L9" s="10">
+        <v>16000</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="R9" s="11">
+        <v>44386</v>
+      </c>
+      <c r="S9" s="11">
+        <v>44386</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="2" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44287</v>
+      </c>
+      <c r="C10" s="11">
+        <v>44377</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="L8" s="5">
-        <v>10200</v>
-      </c>
-      <c r="M8" s="13">
-        <v>9264</v>
-      </c>
-      <c r="N8" s="12">
-        <v>0.7772</v>
-      </c>
-      <c r="O8" s="2" t="s">
+      <c r="K10" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="L10" s="10">
+        <v>5</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="15">
+        <v>0.68</v>
+      </c>
+      <c r="O10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R8" s="3">
-        <v>44298</v>
-      </c>
-      <c r="S8" s="3">
-        <v>44298</v>
-      </c>
-      <c r="T8" s="21" t="s">
+      <c r="P10" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" s="11">
+        <v>44386</v>
+      </c>
+      <c r="S10" s="11">
+        <v>44386</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44287</v>
+      </c>
+      <c r="C11" s="11">
+        <v>44377</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="E11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="L11" s="10">
+        <v>30</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="15">
+        <v>0</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" s="11">
+        <v>44386</v>
+      </c>
+      <c r="S11" s="11">
+        <v>44386</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="2" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>2021</v>
       </c>
-      <c r="B9" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C9" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="B12" s="11">
+        <v>44287</v>
+      </c>
+      <c r="C12" s="11">
+        <v>44377</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0.46760000000000002</v>
-      </c>
-      <c r="L9" s="5">
-        <v>13758</v>
-      </c>
-      <c r="M9" s="13">
-        <v>12799</v>
-      </c>
-      <c r="N9" s="12">
-        <v>0.34660000000000002</v>
-      </c>
-      <c r="O9" s="2" t="s">
+      <c r="K12" s="15">
+        <v>0.87</v>
+      </c>
+      <c r="L12" s="10">
+        <v>160</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="O12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R9" s="3">
-        <v>44298</v>
-      </c>
-      <c r="S9" s="3">
-        <v>44298</v>
-      </c>
-      <c r="T9" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="P12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R12" s="11">
+        <v>44386</v>
+      </c>
+      <c r="S12" s="11">
+        <v>44386</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="2" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
         <v>2021</v>
       </c>
-      <c r="B10" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C10" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="B13" s="11">
+        <v>44287</v>
+      </c>
+      <c r="C13" s="11">
+        <v>44377</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="G13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="12">
-        <v>0.7772</v>
-      </c>
-      <c r="L10" s="2">
-        <v>10500</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2" t="s">
+      <c r="J13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="L13" s="10">
+        <v>4</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="O13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R10" s="3">
-        <v>44298</v>
-      </c>
-      <c r="S10" s="3">
-        <v>44298</v>
-      </c>
-      <c r="T10" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="4" customFormat="1" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="P13" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R13" s="11">
+        <v>44386</v>
+      </c>
+      <c r="S13" s="11">
+        <v>44386</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="2" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
         <v>2021</v>
       </c>
-      <c r="B11" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C11" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="B14" s="11">
+        <v>44287</v>
+      </c>
+      <c r="C14" s="11">
+        <v>44377</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="15">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10">
+        <v>4</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0.34660000000000002</v>
-      </c>
-      <c r="L11" s="2">
-        <v>16000</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2" t="s">
+      <c r="Q14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="R14" s="11">
+        <v>44386</v>
+      </c>
+      <c r="S14" s="11">
+        <v>44386</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="2" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44287</v>
+      </c>
+      <c r="C15" s="11">
+        <v>44377</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c r="N15" s="15">
+        <v>1</v>
+      </c>
+      <c r="O15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R11" s="3">
-        <v>44298</v>
-      </c>
-      <c r="S11" s="3">
-        <v>44298</v>
-      </c>
-      <c r="T11" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C12" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="8" t="s">
+      <c r="P15" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="L12" s="8">
-        <v>5</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="10">
-        <v>0.46</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="R12" s="3">
-        <v>44298</v>
-      </c>
-      <c r="S12" s="3">
-        <v>44298</v>
-      </c>
-      <c r="T12" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C13" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="L13" s="8">
-        <v>30</v>
-      </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="10">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="R13" s="3">
-        <v>44298</v>
-      </c>
-      <c r="S13" s="3">
-        <v>44298</v>
-      </c>
-      <c r="T13" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B14" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C14" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="10">
-        <v>0.87</v>
-      </c>
-      <c r="L14" s="8">
-        <v>160</v>
-      </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="10">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="R14" s="3">
-        <v>44298</v>
-      </c>
-      <c r="S14" s="3">
-        <v>44298</v>
-      </c>
-      <c r="T14" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B15" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C15" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="9" t="s">
+      <c r="R15" s="11">
+        <v>44386</v>
+      </c>
+      <c r="S15" s="11">
+        <v>44386</v>
+      </c>
+      <c r="T15" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="L15" s="8">
-        <v>4</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="10">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="R15" s="3">
-        <v>44298</v>
-      </c>
-      <c r="S15" s="3">
-        <v>44298</v>
-      </c>
-      <c r="T15" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B16" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C16" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="10">
-        <v>1</v>
-      </c>
-      <c r="L16" s="8">
-        <v>4</v>
-      </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="10">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="R16" s="3">
-        <v>44298</v>
-      </c>
-      <c r="S16" s="3">
-        <v>44298</v>
-      </c>
-      <c r="T16" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="255" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B17" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C17" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K17" s="10">
-        <v>1</v>
-      </c>
-      <c r="L17" s="10">
-        <v>1</v>
-      </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="10">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="R17" s="3">
-        <v>44298</v>
-      </c>
-      <c r="S17" s="3">
-        <v>44298</v>
-      </c>
-      <c r="T17" s="21" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1544,7 @@
     <mergeCell ref="G2:N2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O79">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O15">
       <formula1>Hidden_114</formula1>
     </dataValidation>
   </dataValidations>
@@ -1694,12 +1552,10 @@
     <hyperlink ref="P8" r:id="rId1"/>
     <hyperlink ref="P9" r:id="rId2"/>
     <hyperlink ref="P10" r:id="rId3"/>
-    <hyperlink ref="P11" r:id="rId4"/>
-    <hyperlink ref="P12" r:id="rId5"/>
-    <hyperlink ref="P13:P17" r:id="rId6" display="http://www.upp.edu.mx/3esp/index.php/instituci%C3%B3n/evaluaci%C3%B3n_PID.pdf"/>
+    <hyperlink ref="P11:P15" r:id="rId4" display="http://www.upp.edu.mx/3esp/index.php/instituci%C3%B3n/evaluaci%C3%B3n_PID.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f05UPPachuca.xlsx
+++ b/xlsx/a69_f05UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="105">
   <si>
     <t>44212</t>
   </si>
@@ -332,18 +332,22 @@
   </si>
   <si>
     <t>La línea base corresponde al ciclo escolar 2019-2020  que comprende del 1° de septiembre de 2019 al 31 de agosto de 2020.
-El avance de la meta corresponde al ciclo escolar 2020-2021 (1° de septiembre al 31 de marzo de 2021)</t>
+El avance de la meta corresponde al ciclo escolar 2020-2021 (1° de septiembre al 31 de junio de 2021)</t>
   </si>
   <si>
     <t>La línea base corresponde al  ejercicio fiscal 2020
-El avance de la meta correspnde al del 1er trimestre.</t>
+El avance de la meta corresponde al 2do trimestre.</t>
+  </si>
+  <si>
+    <t>La línea base corresponde al  ejercicio fiscal 2020
+El avance de la meta correspnde al 2do trimestre.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -371,19 +375,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -449,6 +440,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,27 +477,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -771,7 +762,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,10 +770,10 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.85546875" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" customWidth="1"/>
     <col min="5" max="5" width="28.140625" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.5703125" customWidth="1"/>
+    <col min="7" max="7" width="48" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -791,11 +782,11 @@
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="85.5703125" customWidth="1"/>
+    <col min="16" max="16" width="79.28515625" customWidth="1"/>
     <col min="17" max="17" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="46" customWidth="1"/>
+    <col min="20" max="20" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -804,48 +795,48 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
     </row>
     <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -909,7 +900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="10.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -972,28 +963,28 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1057,480 +1048,480 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+    <row r="8" spans="1:20" s="2" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2021</v>
       </c>
-      <c r="B8" s="11">
-        <v>44287</v>
-      </c>
-      <c r="C8" s="11">
-        <v>44377</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="B8" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="6">
         <v>0.7772</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="3">
         <v>10500</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10" t="s">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="R8" s="11">
-        <v>44386</v>
-      </c>
-      <c r="S8" s="11">
-        <v>44386</v>
-      </c>
-      <c r="T8" s="16" t="s">
+      <c r="R8" s="4">
+        <v>44480</v>
+      </c>
+      <c r="S8" s="4">
+        <v>44480</v>
+      </c>
+      <c r="T8" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>2021</v>
       </c>
-      <c r="B9" s="11">
-        <v>44287</v>
-      </c>
-      <c r="C9" s="11">
-        <v>44377</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="6">
         <v>0.34660000000000002</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="3">
         <v>16000</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10" t="s">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="Q9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="R9" s="11">
-        <v>44386</v>
-      </c>
-      <c r="S9" s="11">
-        <v>44386</v>
-      </c>
-      <c r="T9" s="16" t="s">
+      <c r="R9" s="4">
+        <v>44480</v>
+      </c>
+      <c r="S9" s="4">
+        <v>44480</v>
+      </c>
+      <c r="T9" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+    <row r="10" spans="1:20" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>2021</v>
       </c>
-      <c r="B10" s="11">
-        <v>44287</v>
-      </c>
-      <c r="C10" s="11">
-        <v>44377</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="B10" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="8">
         <v>0.9</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="3">
         <v>5</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="15">
-        <v>0.68</v>
-      </c>
-      <c r="O10" s="10" t="s">
+      <c r="M10" s="3"/>
+      <c r="N10" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="P10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="Q10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="R10" s="11">
-        <v>44386</v>
-      </c>
-      <c r="S10" s="11">
-        <v>44386</v>
-      </c>
-      <c r="T10" s="16" t="s">
+      <c r="R10" s="4">
+        <v>44480</v>
+      </c>
+      <c r="S10" s="4">
+        <v>44480</v>
+      </c>
+      <c r="T10" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+    <row r="11" spans="1:20" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>2021</v>
       </c>
-      <c r="B11" s="11">
-        <v>44287</v>
-      </c>
-      <c r="C11" s="11">
-        <v>44377</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="B11" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="8">
         <v>0.1</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="3">
         <v>30</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="15">
+      <c r="M11" s="3"/>
+      <c r="N11" s="8">
         <v>0</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="P11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Q11" s="10" t="s">
+      <c r="Q11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="R11" s="11">
-        <v>44386</v>
-      </c>
-      <c r="S11" s="11">
-        <v>44386</v>
-      </c>
-      <c r="T11" s="16" t="s">
+      <c r="R11" s="4">
+        <v>44480</v>
+      </c>
+      <c r="S11" s="4">
+        <v>44480</v>
+      </c>
+      <c r="T11" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+    <row r="12" spans="1:20" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>2021</v>
       </c>
-      <c r="B12" s="11">
-        <v>44287</v>
-      </c>
-      <c r="C12" s="11">
-        <v>44377</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="B12" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="8">
         <v>0.87</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="3">
         <v>160</v>
       </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="15">
-        <v>0.94</v>
-      </c>
-      <c r="O12" s="10" t="s">
+      <c r="M12" s="3"/>
+      <c r="N12" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="P12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="R12" s="11">
-        <v>44386</v>
-      </c>
-      <c r="S12" s="11">
-        <v>44386</v>
-      </c>
-      <c r="T12" s="16" t="s">
+      <c r="R12" s="4">
+        <v>44480</v>
+      </c>
+      <c r="S12" s="4">
+        <v>44480</v>
+      </c>
+      <c r="T12" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+    <row r="13" spans="1:20" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>2021</v>
       </c>
-      <c r="B13" s="11">
-        <v>44287</v>
-      </c>
-      <c r="C13" s="11">
-        <v>44377</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="B13" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="8">
         <v>0.7</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="3">
         <v>4</v>
       </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="O13" s="10" t="s">
+      <c r="M13" s="3"/>
+      <c r="N13" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="14" t="s">
+      <c r="P13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="Q13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="R13" s="11">
-        <v>44386</v>
-      </c>
-      <c r="S13" s="11">
-        <v>44386</v>
-      </c>
-      <c r="T13" s="16" t="s">
+      <c r="R13" s="4">
+        <v>44480</v>
+      </c>
+      <c r="S13" s="4">
+        <v>44480</v>
+      </c>
+      <c r="T13" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="2" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+    <row r="14" spans="1:20" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>2021</v>
       </c>
-      <c r="B14" s="11">
-        <v>44287</v>
-      </c>
-      <c r="C14" s="11">
-        <v>44377</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="B14" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C14" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="8">
         <v>1</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="3">
         <v>4</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="O14" s="10" t="s">
+      <c r="M14" s="3"/>
+      <c r="N14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P14" s="14" t="s">
+      <c r="P14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Q14" s="10" t="s">
+      <c r="Q14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="R14" s="11">
-        <v>44386</v>
-      </c>
-      <c r="S14" s="11">
-        <v>44386</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="2" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
+      <c r="R14" s="4">
+        <v>44480</v>
+      </c>
+      <c r="S14" s="4">
+        <v>44480</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>2021</v>
       </c>
-      <c r="B15" s="11">
-        <v>44287</v>
-      </c>
-      <c r="C15" s="11">
-        <v>44377</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="B15" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C15" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="8">
         <v>1</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="8">
         <v>1</v>
       </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="15">
+      <c r="M15" s="3"/>
+      <c r="N15" s="8">
         <v>1</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="O15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P15" s="14" t="s">
+      <c r="P15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="Q15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="R15" s="11">
-        <v>44386</v>
-      </c>
-      <c r="S15" s="11">
-        <v>44386</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>103</v>
+      <c r="R15" s="4">
+        <v>44480</v>
+      </c>
+      <c r="S15" s="4">
+        <v>44480</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f05UPPachuca.xlsx
+++ b/xlsx/a69_f05UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
   <si>
     <t>44212</t>
   </si>
@@ -332,15 +332,19 @@
   </si>
   <si>
     <t>La línea base corresponde al ciclo escolar 2019-2020  que comprende del 1° de septiembre de 2019 al 31 de agosto de 2020.
-El avance de la meta corresponde al ciclo escolar 2020-2021 (1° de septiembre al 31 de junio de 2021)</t>
+El avance de la meta corresponde al ciclo escolar 2020-2021 (1° de septiembre al 31 de agosto de 2021)</t>
   </si>
   <si>
     <t>La línea base corresponde al  ejercicio fiscal 2020
-El avance de la meta corresponde al 2do trimestre.</t>
+El avance de la meta corresponde al 3er trimestre del ejercicio 2021</t>
+  </si>
+  <si>
+    <t>La línea base corresponde al ciclo escolar 2019-2020  que comprende del 1° de septiembre de 2019 al 31 de agosto de 2020.
+El avance de la meta corresponde al ciclo escolar 2020-2021 (1° de septiembre al 31 de julio de 2021)</t>
   </si>
   <si>
     <t>La línea base corresponde al  ejercicio fiscal 2020
-El avance de la meta correspnde al 2do trimestre.</t>
+El avance de la meta corresponde al 3er trimestre  del ejercicio 2021</t>
   </si>
 </sst>
 </file>
@@ -432,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -455,11 +459,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -761,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,10 +777,10 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
     <col min="5" max="5" width="28.140625" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -782,7 +789,7 @@
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="79.28515625" customWidth="1"/>
+    <col min="16" max="16" width="59.28515625" customWidth="1"/>
     <col min="17" max="17" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
@@ -795,48 +802,48 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="15" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-    </row>
-    <row r="3" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+    </row>
+    <row r="3" spans="1:20" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -963,85 +970,85 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="9" t="s">
         <v>52</v>
       </c>
       <c r="T7" s="1" t="s">
@@ -1053,10 +1060,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="4">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>56</v>
@@ -1097,24 +1104,24 @@
         <v>87</v>
       </c>
       <c r="R8" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="S8" s="4">
-        <v>44480</v>
-      </c>
-      <c r="T8" s="9" t="s">
+        <v>44571</v>
+      </c>
+      <c r="T8" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2021</v>
       </c>
       <c r="B9" s="4">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C9" s="4">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>65</v>
@@ -1155,12 +1162,12 @@
         <v>87</v>
       </c>
       <c r="R9" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="S9" s="4">
-        <v>44480</v>
-      </c>
-      <c r="T9" s="9" t="s">
+        <v>44571</v>
+      </c>
+      <c r="T9" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1169,10 +1176,10 @@
         <v>2021</v>
       </c>
       <c r="B10" s="4">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C10" s="4">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>76</v>
@@ -1195,15 +1202,15 @@
       <c r="J10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="10">
         <v>0.9</v>
       </c>
       <c r="L10" s="3">
         <v>5</v>
       </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="8">
-        <v>0.82</v>
+      <c r="N10" s="10">
+        <v>0.95</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>54</v>
@@ -1215,12 +1222,12 @@
         <v>71</v>
       </c>
       <c r="R10" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="S10" s="4">
-        <v>44480</v>
-      </c>
-      <c r="T10" s="9" t="s">
+        <v>44571</v>
+      </c>
+      <c r="T10" s="8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1229,10 +1236,10 @@
         <v>2021</v>
       </c>
       <c r="B11" s="4">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C11" s="4">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>91</v>
@@ -1255,14 +1262,14 @@
       <c r="J11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="10">
         <v>0.1</v>
       </c>
       <c r="L11" s="3">
         <v>30</v>
       </c>
       <c r="M11" s="3"/>
-      <c r="N11" s="8">
+      <c r="N11" s="10">
         <v>0</v>
       </c>
       <c r="O11" s="3" t="s">
@@ -1275,12 +1282,12 @@
         <v>71</v>
       </c>
       <c r="R11" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="S11" s="4">
-        <v>44480</v>
-      </c>
-      <c r="T11" s="9" t="s">
+        <v>44571</v>
+      </c>
+      <c r="T11" s="8" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1289,10 +1296,10 @@
         <v>2021</v>
       </c>
       <c r="B12" s="4">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C12" s="4">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>93</v>
@@ -1315,14 +1322,14 @@
       <c r="J12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="10">
         <v>0.87</v>
       </c>
       <c r="L12" s="3">
         <v>160</v>
       </c>
       <c r="M12" s="3"/>
-      <c r="N12" s="8">
+      <c r="N12" s="10">
         <v>0.95</v>
       </c>
       <c r="O12" s="3" t="s">
@@ -1335,13 +1342,13 @@
         <v>71</v>
       </c>
       <c r="R12" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="S12" s="4">
-        <v>44480</v>
-      </c>
-      <c r="T12" s="9" t="s">
-        <v>102</v>
+        <v>44571</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -1349,10 +1356,10 @@
         <v>2021</v>
       </c>
       <c r="B13" s="4">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C13" s="4">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>80</v>
@@ -1375,15 +1382,15 @@
       <c r="J13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="10">
         <v>0.7</v>
       </c>
       <c r="L13" s="3">
         <v>4</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="8">
-        <v>0.71</v>
+      <c r="N13" s="10">
+        <v>0.73</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>54</v>
@@ -1395,13 +1402,13 @@
         <v>71</v>
       </c>
       <c r="R13" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="S13" s="4">
-        <v>44480</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>103</v>
+        <v>44571</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -1409,10 +1416,10 @@
         <v>2021</v>
       </c>
       <c r="B14" s="4">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C14" s="4">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>83</v>
@@ -1435,15 +1442,15 @@
       <c r="J14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="10">
         <v>1</v>
       </c>
       <c r="L14" s="3">
         <v>4</v>
       </c>
       <c r="M14" s="3"/>
-      <c r="N14" s="8">
-        <v>0.5</v>
+      <c r="N14" s="10">
+        <v>0.75</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>54</v>
@@ -1455,24 +1462,24 @@
         <v>81</v>
       </c>
       <c r="R14" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="S14" s="4">
-        <v>44480</v>
-      </c>
-      <c r="T14" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+        <v>44571</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2021</v>
       </c>
       <c r="B15" s="4">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C15" s="4">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>98</v>
@@ -1495,14 +1502,14 @@
       <c r="J15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="10">
         <v>1</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="10">
         <v>1</v>
       </c>
       <c r="M15" s="3"/>
-      <c r="N15" s="8">
+      <c r="N15" s="10">
         <v>1</v>
       </c>
       <c r="O15" s="3" t="s">
@@ -1515,13 +1522,13 @@
         <v>71</v>
       </c>
       <c r="R15" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="S15" s="4">
-        <v>44480</v>
-      </c>
-      <c r="T15" s="9" t="s">
-        <v>104</v>
+        <v>44571</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f05UPPachuca.xlsx
+++ b/xlsx/a69_f05UPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -18,12 +13,12 @@
   <definedNames>
     <definedName name="Hidden_114">Hidden_1!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
   <si>
     <t>44212</t>
   </si>
@@ -193,54 +188,90 @@
     <t>Descendente</t>
   </si>
   <si>
-    <t>Contribuir a la conclusión de la Educación Superior de los jóvenes inscritos en las Instituciones Públicas de Educación Superior, sectorizadas a la Secretaria de Educación Pública de Hidalgo con el otorgamiento de servicios educativos con pertinencia y calidad.</t>
-  </si>
-  <si>
-    <t>Porcentaje de Eficiencia Terminal en Educación Superior</t>
+    <t>Dirección de Planeación (UPP)</t>
+  </si>
+  <si>
+    <t>Incrementar la cobertura del sector educativo  en el nivel medio superior y superior para Estado de Hidalgo.</t>
+  </si>
+  <si>
+    <t>Porcentaje de Atención a la Demanda solicitada de la Universidad Politécnica de Pachuca.</t>
   </si>
   <si>
     <t>Eficacia</t>
   </si>
   <si>
-    <t>Mide el número de estudiantes que concluyen sus estudios de educación superior por cohorte generacional, con la finalidad de que los jóvenes puedan acceder a mejores oportunidades de empleo  acordes a su perfil de egreso y de esta manera apoyar el bienestar familiar y el de la región.</t>
+    <t>(Matricula de Nuevo Ingreso a primero (MTNI)/Solicitudes de Nuevo Ingreso a primero (STNI))x100</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>Universidad Politécnica de Pachuca - Dirección de Planeación (Departamento de Servicios escolares)</t>
+  </si>
+  <si>
+    <t>Otorgar una oferta educativa de calidad a la población hidalguense.</t>
+  </si>
+  <si>
+    <t>Mide el porcentaje de atención a la demanda solicitada con respecto a los nuevos ingresos</t>
+  </si>
+  <si>
+    <t>Porcentaje de Profesores de Tiempo Completo (PTC) que participan en los Cuerpos Académicos de la Universidad Politécnica de Pachuca.</t>
+  </si>
+  <si>
+    <t>Mide la cantidad de Profesores de Tiempo Completo que participan en los Cuerpos Académicos en formación, en procesos de consolidación y consolidados, respecto al total de Profesores de Tiempo Completo adscritos a la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>Profesores de Tiempo Completo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Total de Profesores de Tiempo Completo que participan en los cuerpos académicos en la UPP (TPTCCAUPP)/ Total de Profesores de Tiempo Completo adscritos a la UPP (TPTCUPP))x100 </t>
+  </si>
+  <si>
+    <t>Cuatrimestral</t>
+  </si>
+  <si>
+    <t>Universidad Politécnica de Pachuca - Dirección de Innovación, Investigación y Posgrado-Secretaría Administrativa (Departamento de Recursos Humanos)</t>
+  </si>
+  <si>
+    <t>Dirección de Innovación, Investigación y Posgrado (UPP)</t>
+  </si>
+  <si>
+    <t>Porcentaje de Cobertura de la UPP</t>
+  </si>
+  <si>
+    <t>Mide el porcentaje de población en edad escolar que es atendida por la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>(Población de 18 a 22 años  del ciclo escolar (P (18-22)n)/ Matricula Total (MTn))x100</t>
   </si>
   <si>
     <t>Estudiante</t>
   </si>
   <si>
+    <t>Ciclo escolar</t>
+  </si>
+  <si>
+    <t>Porcentaje de acciones que contribuyen al incremento de la matrícula y calidad de la oferta educativa</t>
+  </si>
+  <si>
+    <t>Mide el porcentaje de acciones que contribuye al incremento de la matrícula y calidad de la oferta educativa que atiende la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>(Total de acciones realizadas que contribuyen al incremento de la matrícula y calidad de la oferta educativa /  Total de acciones definidas que contribuyen al incremento de la matrícula y calidad de la oferta )x100</t>
+  </si>
+  <si>
+    <t>Acción</t>
+  </si>
+  <si>
     <t>Anual (Ciclo Escolar)</t>
   </si>
   <si>
-    <t>http://sep.hidalgo.gob.mx/content/acerca/superior/dges/</t>
-  </si>
-  <si>
-    <t>Porcentaje de Absorción en Educación Superior</t>
-  </si>
-  <si>
-    <t>Mide la totalidad de estudiantes de nuevo ingreso a la educación superior, con la finalidad de conocer cuántos de los jóvenes egresados de educación media superior son aceptados para  recibir educación pertinente y de calidad en las Instituciones Públicas de Educación Superior, sectorizadas a la Secretaria de Educación Pública de Hidalgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alumnos egresados de la educación media superior cuentan con opciones para recibir educación superior con calidad y pertinencia en las Instituciones Públicas de Educación Superior, </t>
-  </si>
-  <si>
-    <t>Porcentaje de acciones que contribuyen al incremento de la matrícula y calidad de la oferta educativa</t>
-  </si>
-  <si>
-    <t>(Estudiantes Egresados de una Cohorte (EEC)/Estudiantes de Nuevo Ingreso base de la Cohorte (ENIBC)) x 100</t>
-  </si>
-  <si>
-    <t>(Número de Estudiantes de Nuevo Ingreso a Educación Superior en Ciclo Escolar t/Total de Estudiantes Egresados de Educación Media Superior en el Ciclo Escolar t-1 ) x 100</t>
-  </si>
-  <si>
-    <t>Acción</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/3esp/index.php/instituci%C3%B3n/evaluaci%C3%B3n_PID.pdf</t>
-  </si>
-  <si>
     <t>Secretaría Académica (UPP)</t>
   </si>
   <si>
+    <t>Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
     <t>Porcentaje de proyectos concluidos de investigación o transferencia tecnológica</t>
   </si>
   <si>
@@ -250,108 +281,41 @@
     <t>Proyecto</t>
   </si>
   <si>
-    <t>Anual</t>
-  </si>
-  <si>
-    <t>1. Incrementar la cobertura y calidad de la oferta educativa en el estado de Hidalgo.</t>
+    <t>Universidad Politécnica de Pachuca - Dirección de Innovación, Investigación y Posgrado</t>
+  </si>
+  <si>
+    <t>Universidad Politécnica de Pachuca - Secretaría Académica (UPP)</t>
+  </si>
+  <si>
+    <t>Fortalecer la personal docente de educación básica en el Estado</t>
+  </si>
+  <si>
+    <t>Porcentaje de personal docente que obtiene resultados aprobatorios en las evaluaciones</t>
+  </si>
+  <si>
+    <t>Mide el número de docentes que en las evaluaciones obtienen resultados aprobatorios</t>
   </si>
   <si>
     <t>Docente</t>
   </si>
   <si>
-    <t>Porcentaje de cumplimiento del programa orientado a disminuir las brechas de desigualdad entre hombres y mujeres</t>
-  </si>
-  <si>
-    <t>Mide el porcentaje de acciones orientadas a  disminuir las brechas de desigualdad entre hombres y mujeres</t>
-  </si>
-  <si>
-    <t>T1. Fomentar la igualdad entre hombres y mujeres en la comunidad universitaria para cerrar las brechas de genero que limitan el desarrollo  académico o profesional</t>
-  </si>
-  <si>
-    <t>Dirección de Comunicación Social (UPP)</t>
-  </si>
-  <si>
-    <t>Cuatrimestral</t>
-  </si>
-  <si>
-    <t>T2. Promover el desarrollo de los valores éticos y bioéticos impactando en la mejora de la convivencia escolar y e su entorno.</t>
-  </si>
-  <si>
-    <t>Porcentaje de acciones cumplidas de acuerdo a lo establecido en el Eje de Sana Convivencia del Consejo Técnico Escolar de Educación Superior (CTEES)</t>
-  </si>
-  <si>
-    <t>Mide el número de acciones implementadas para mejorar la convivencia en la comunidad universitaria.</t>
-  </si>
-  <si>
-    <t>(Total de acciones cumplidas en el eje de ambiente de Sana Convivencia del Consejo Técnico Escolar de Educación Superior (CTEES)/  Total de acciones definidas en  el eje de ambiente de Sana Convivencia del Consejo Técnico Escolar de Educación Superior (CTEES))x100</t>
-  </si>
-  <si>
-    <t>Universidad Politécnica de Pachuca (UPP)</t>
-  </si>
-  <si>
-    <t>Los criterios que se observan vacíos es por que este Organismo no los genera; el avance de las meta, se reporta al cierre del ejercicio 2021 cuando la Subsecretaria de Educación Media Superior y Superior lo turne.</t>
-  </si>
-  <si>
-    <t>Mide el porcentaje de acciones que contribuye al incremento de la matrícula y calidad de la oferta educativa que tiene la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>(Total de acciones realizadas que contribuyen al incremento de la matrícula y calidad de la oferta educativa /  Total de acciones definidas que contribuyen al incremento de la matrícula y calidad de la oferta )x100</t>
-  </si>
-  <si>
-    <t>2. Impulsar la investigación, la innovación, el desarrollo y transferencia de tecnología e internacionalización como ejes rectores para la consolidación de la universidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Total de proyectos concluidos de investigación o transferencia tecnológica / Total de proyectos de investigación o transferencia de  tecnología en los que participa la institución )x100 </t>
-  </si>
-  <si>
-    <t>3. Fortalecer la gestión y profesionalización del personal para la mejora continua</t>
-  </si>
-  <si>
-    <t>Porcentaje de personal docente que obtiene resultados aprobatorios en las evaluaciones</t>
-  </si>
-  <si>
-    <t>Mide el número de docentes que en las evaluaciones obtienen resultados aprobatorios</t>
-  </si>
-  <si>
-    <t>(Total de docentes con resultados aprobatorios/ Total de docentes evaluados)x100</t>
-  </si>
-  <si>
-    <t>(Total de  acciones orientadas a  disminuir las brechas de desigualdad entre hombres y mujeres realizadas/ Total de  acciones orientadas a  disminuir las brechas de desigualdad entre hombres y mujeres definidas)x100</t>
-  </si>
-  <si>
-    <t>T3. Impulsar la innovación educativa integrando la ciencia y la tecnología en los procesos de formación</t>
-  </si>
-  <si>
-    <t>Porcentaje de acciones educativas innovadoras  emitidas por las Academias Estáteles aplicadas en la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>Mide el porcentaje de acciones educativas e innovadoras, resultados de propuestas emitidas por las Academias Estáteles,  seleccionadas por la Secretaría de Educación Pública de Hidalgo para aplicarse al entorno escolar después de un proceso de análisis de las conveniencias de su impacto positivo, para la obtención de los aprendizajes que fomenten la innovación de los estudiantes y que favorezcan la articulación de programas estratégicos.</t>
-  </si>
-  <si>
-    <t>(Total de  acciones educativas innovadoras aplicadas/ Total de  acciones educativas innovadoras definidas y de competencia de la universidad)x100</t>
-  </si>
-  <si>
-    <t>La línea base corresponde al ciclo escolar 2019-2020  que comprende del 1° de septiembre de 2019 al 31 de agosto de 2020.
-El avance de la meta corresponde al ciclo escolar 2020-2021 (1° de septiembre al 31 de agosto de 2021)</t>
-  </si>
-  <si>
-    <t>La línea base corresponde al  ejercicio fiscal 2020
-El avance de la meta corresponde al 3er trimestre del ejercicio 2021</t>
-  </si>
-  <si>
-    <t>La línea base corresponde al ciclo escolar 2019-2020  que comprende del 1° de septiembre de 2019 al 31 de agosto de 2020.
-El avance de la meta corresponde al ciclo escolar 2020-2021 (1° de septiembre al 31 de julio de 2021)</t>
-  </si>
-  <si>
-    <t>La línea base corresponde al  ejercicio fiscal 2020
-El avance de la meta corresponde al 3er trimestre  del ejercicio 2021</t>
+    <t xml:space="preserve">(Total de proyectos concluidos de investigación o transferencia tecnológica (TPITTCF) / Total de proyectos de investigación o transferencia de  tecnología en los que participa la institución (TPIT))x100 </t>
+  </si>
+  <si>
+    <t>(Total de docentes con resultados aprobatorios (TDA)/ Total de docentes evaluados (TDE))x100</t>
+  </si>
+  <si>
+    <t>Impartir servicios educativos con suficiencia, calidad y relevancia, que garanticen el acceso a los niveles educativos en igualdad y con recursos destinados a programas de impacto que incidan en la mejora de las condiciones de bienestar de las personas.</t>
+  </si>
+  <si>
+    <t>Los criterios que se encuentran vacíos es derivado de que en el periodo reportado no se cuenta con metas ajustadas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -371,14 +335,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -432,18 +388,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -453,20 +406,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,9 +426,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -758,7 +701,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -766,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="R2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,11 +720,11 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" customWidth="1"/>
-    <col min="8" max="8" width="34" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
@@ -789,11 +732,11 @@
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="59.28515625" customWidth="1"/>
+    <col min="16" max="16" width="41.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.7109375" customWidth="1"/>
+    <col min="20" max="20" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -802,48 +745,42 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="16" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" spans="1:20" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -970,565 +907,449 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="S7" s="1" t="s">
         <v>52</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="4">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>61</v>
       </c>
       <c r="K8" s="6">
-        <v>0.7772</v>
-      </c>
-      <c r="L8" s="3">
-        <v>10500</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3" t="s">
+        <v>0.47</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1400</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="5" t="s">
         <v>62</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="R8" s="4">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="S8" s="4">
-        <v>44571</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+        <v>44659</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="4">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C9" s="4">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>68</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="L9" s="5">
+        <v>88</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="4">
+        <v>44659</v>
+      </c>
+      <c r="S9" s="4">
+        <v>44659</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44651</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="L10" s="5">
+        <v>3990</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="4">
+        <v>44659</v>
+      </c>
+      <c r="S10" s="4">
+        <v>44659</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44651</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="L11" s="5">
+        <v>5</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R11" s="4">
+        <v>44659</v>
+      </c>
+      <c r="S11" s="4">
+        <v>44659</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="2" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44651</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="6">
-        <v>0.34660000000000002</v>
-      </c>
-      <c r="L9" s="3">
-        <v>16000</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3" t="s">
+      <c r="K12" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L12" s="5">
+        <v>5</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q9" s="3" t="s">
+      <c r="P12" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="R9" s="4">
-        <v>44571</v>
-      </c>
-      <c r="S9" s="4">
-        <v>44571</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="L10" s="3">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R10" s="4">
-        <v>44571</v>
-      </c>
-      <c r="S10" s="4">
-        <v>44571</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B11" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C11" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="L11" s="3">
-        <v>30</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="10">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R11" s="4">
-        <v>44571</v>
-      </c>
-      <c r="S11" s="4">
-        <v>44571</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B12" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C12" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="10">
-        <v>0.87</v>
-      </c>
-      <c r="L12" s="3">
-        <v>160</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>71</v>
       </c>
       <c r="R12" s="4">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="S12" s="4">
-        <v>44571</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>44659</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B13" s="4">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C13" s="4">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="L13" s="3">
-        <v>4</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="10">
-        <v>0.73</v>
-      </c>
-      <c r="O13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="L13" s="5">
+        <v>164</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>70</v>
+      <c r="P13" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="R13" s="4">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="S13" s="4">
-        <v>44571</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B14" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C14" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="10">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="R14" s="4">
-        <v>44571</v>
-      </c>
-      <c r="S14" s="4">
-        <v>44571</v>
-      </c>
-      <c r="T14" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B15" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C15" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" s="10">
-        <v>1</v>
-      </c>
-      <c r="L15" s="10">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="10">
-        <v>1</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R15" s="4">
-        <v>44571</v>
-      </c>
-      <c r="S15" s="4">
-        <v>44571</v>
-      </c>
-      <c r="T15" s="8" t="s">
-        <v>105</v>
+        <v>44659</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1538,22 +1359,16 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G2:K2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O201">
       <formula1>Hidden_114</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="P8" r:id="rId1"/>
-    <hyperlink ref="P9" r:id="rId2"/>
-    <hyperlink ref="P10" r:id="rId3"/>
-    <hyperlink ref="P11:P15" r:id="rId4" display="http://www.upp.edu.mx/3esp/index.php/instituci%C3%B3n/evaluaci%C3%B3n_PID.pdf"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1561,9 +1376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD63"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/xlsx/a69_f05UPPachuca.xlsx
+++ b/xlsx/a69_f05UPPachuca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11130" windowHeight="3810"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
     <t>Impartir servicios educativos con suficiencia, calidad y relevancia, que garanticen el acceso a los niveles educativos en igualdad y con recursos destinados a programas de impacto que incidan en la mejora de las condiciones de bienestar de las personas.</t>
   </si>
   <si>
-    <t>Los criterios que se encuentran vacíos es derivado de que en el periodo reportado no se cuenta con metas ajustadas.</t>
+    <t>Las metas ajustadas no fueron requeridas para este periodo. Las Metas alcanzadas son del periodo enero-marzo 2022.</t>
   </si>
 </sst>
 </file>
@@ -414,6 +414,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -425,9 +428,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,7 +701,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,8 +723,8 @@
     <col min="4" max="4" width="32.28515625" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
@@ -736,7 +736,7 @@
     <col min="17" max="17" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="60.85546875" customWidth="1"/>
+    <col min="20" max="20" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -755,15 +755,15 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:20" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -774,13 +774,13 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -992,15 +992,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>57</v>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>54</v>
@@ -1043,24 +1043,24 @@
         <v>56</v>
       </c>
       <c r="R8" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="S8" s="4">
-        <v>44659</v>
-      </c>
-      <c r="T8" s="14" t="s">
+        <v>44753</v>
+      </c>
+      <c r="T8" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2022</v>
       </c>
       <c r="B9" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C9" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>63</v>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="6">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O9" s="5" t="s">
         <v>54</v>
@@ -1103,24 +1103,24 @@
         <v>71</v>
       </c>
       <c r="R9" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="S9" s="4">
-        <v>44659</v>
-      </c>
-      <c r="T9" s="14" t="s">
+        <v>44753</v>
+      </c>
+      <c r="T9" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2022</v>
       </c>
       <c r="B10" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C10" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>57</v>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="6">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>54</v>
@@ -1163,24 +1163,24 @@
         <v>56</v>
       </c>
       <c r="R10" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="S10" s="4">
-        <v>44659</v>
-      </c>
-      <c r="T10" s="14" t="s">
+        <v>44753</v>
+      </c>
+      <c r="T10" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2022</v>
       </c>
       <c r="B11" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C11" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>57</v>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="6">
-        <v>0.24</v>
+        <v>0.47</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>54</v>
@@ -1223,12 +1223,12 @@
         <v>82</v>
       </c>
       <c r="R11" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="S11" s="4">
-        <v>44659</v>
-      </c>
-      <c r="T11" s="14" t="s">
+        <v>44753</v>
+      </c>
+      <c r="T11" s="10" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1237,10 +1237,10 @@
         <v>2022</v>
       </c>
       <c r="B12" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C12" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>95</v>
@@ -1283,24 +1283,24 @@
         <v>71</v>
       </c>
       <c r="R12" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="S12" s="4">
-        <v>44659</v>
-      </c>
-      <c r="T12" s="14" t="s">
+        <v>44753</v>
+      </c>
+      <c r="T12" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="2" customFormat="1" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2022</v>
       </c>
       <c r="B13" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C13" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>89</v>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="6">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="O13" s="5" t="s">
         <v>54</v>
@@ -1343,12 +1343,12 @@
         <v>82</v>
       </c>
       <c r="R13" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="S13" s="4">
-        <v>44659</v>
-      </c>
-      <c r="T13" s="14" t="s">
+        <v>44753</v>
+      </c>
+      <c r="T13" s="10" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1368,7 +1368,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f05UPPachuca.xlsx
+++ b/xlsx/a69_f05UPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F8DD6A3-F292-4F0C-A3EF-DC1CA5882FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11130" windowHeight="3810"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,12 @@
   <definedNames>
     <definedName name="Hidden_114">Hidden_1!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="96">
   <si>
     <t>44212</t>
   </si>
@@ -188,9 +194,6 @@
     <t>Descendente</t>
   </si>
   <si>
-    <t>Dirección de Planeación (UPP)</t>
-  </si>
-  <si>
     <t>Incrementar la cobertura del sector educativo  en el nivel medio superior y superior para Estado de Hidalgo.</t>
   </si>
   <si>
@@ -233,9 +236,6 @@
     <t>Universidad Politécnica de Pachuca - Dirección de Innovación, Investigación y Posgrado-Secretaría Administrativa (Departamento de Recursos Humanos)</t>
   </si>
   <si>
-    <t>Dirección de Innovación, Investigación y Posgrado (UPP)</t>
-  </si>
-  <si>
     <t>Porcentaje de Cobertura de la UPP</t>
   </si>
   <si>
@@ -266,9 +266,6 @@
     <t>Anual (Ciclo Escolar)</t>
   </si>
   <si>
-    <t>Secretaría Académica (UPP)</t>
-  </si>
-  <si>
     <t>Universidad Politécnica de Pachuca</t>
   </si>
   <si>
@@ -308,13 +305,21 @@
     <t>Impartir servicios educativos con suficiencia, calidad y relevancia, que garanticen el acceso a los niveles educativos en igualdad y con recursos destinados a programas de impacto que incidan en la mejora de las condiciones de bienestar de las personas.</t>
   </si>
   <si>
-    <t>Las metas ajustadas no fueron requeridas para este periodo. Las Metas alcanzadas son del periodo enero-marzo 2022.</t>
+    <t>Departamento de Evaluación y Estadísticas (UPP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Las metas ajustadas no fueron requeridas para este periodo. Las metas alcanzadas son del periodo abril-junio 2022. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Las metas ajustadas no fueron requeridas para este periodo.Las metas alcanzadas son del periodo abril-junio 2022. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -378,25 +383,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -417,17 +412,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,42 +690,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="41.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" customWidth="1"/>
+    <col min="8" max="8" width="35" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="30.5703125" customWidth="1"/>
+    <col min="13" max="13" width="35.140625" customWidth="1"/>
+    <col min="14" max="14" width="56" customWidth="1"/>
+    <col min="15" max="15" width="34" customWidth="1"/>
+    <col min="16" max="16" width="47.42578125" customWidth="1"/>
+    <col min="17" max="17" width="81.5703125" customWidth="1"/>
+    <col min="18" max="18" width="24" customWidth="1"/>
+    <col min="19" max="19" width="32" customWidth="1"/>
+    <col min="20" max="20" width="51.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -745,42 +734,38 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="13" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:20" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -844,7 +829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -907,28 +892,28 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -992,364 +977,364 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2022</v>
       </c>
-      <c r="B8" s="4">
-        <v>44652</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44742</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44834</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="I8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1400</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R8" s="3">
+        <v>44844</v>
+      </c>
+      <c r="S8" s="3">
+        <v>44844</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="240" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44834</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="F9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="L9" s="4">
+        <v>88</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R9" s="3">
+        <v>44844</v>
+      </c>
+      <c r="S9" s="3">
+        <v>44844</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44834</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="L10" s="4">
+        <v>3990</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R10" s="3">
+        <v>44844</v>
+      </c>
+      <c r="S10" s="3">
+        <v>44844</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="240" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44834</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="L11" s="4">
+        <v>5</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R11" s="3">
+        <v>44844</v>
+      </c>
+      <c r="S11" s="3">
+        <v>44844</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44834</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0.47</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1400</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="O8" s="5" t="s">
+      <c r="K12" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>5</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R8" s="4">
-        <v>44753</v>
-      </c>
-      <c r="S8" s="4">
-        <v>44753</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="P12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R12" s="3">
+        <v>44844</v>
+      </c>
+      <c r="S12" s="3">
+        <v>44844</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>2022</v>
       </c>
-      <c r="B9" s="4">
-        <v>44652</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44742</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0.59</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="B13" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44834</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O9" s="5" t="s">
+      <c r="H13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="L13" s="4">
+        <v>164</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R9" s="4">
-        <v>44753</v>
-      </c>
-      <c r="S9" s="4">
-        <v>44753</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44652</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44742</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0.72</v>
-      </c>
-      <c r="L10" s="5">
-        <v>3990</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="6">
-        <v>0.72</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R10" s="4">
-        <v>44753</v>
-      </c>
-      <c r="S10" s="4">
-        <v>44753</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="4">
-        <v>44652</v>
-      </c>
-      <c r="C11" s="4">
-        <v>44742</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0.95</v>
-      </c>
-      <c r="L11" s="5">
-        <v>5</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6">
-        <v>0.47</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="R11" s="4">
-        <v>44753</v>
-      </c>
-      <c r="S11" s="4">
-        <v>44753</v>
-      </c>
-      <c r="T11" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B12" s="4">
-        <v>44652</v>
-      </c>
-      <c r="C12" s="4">
-        <v>44742</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="P13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R13" s="3">
+        <v>44844</v>
+      </c>
+      <c r="S13" s="3">
+        <v>44844</v>
+      </c>
+      <c r="T13" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L12" s="5">
-        <v>5</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R12" s="4">
-        <v>44753</v>
-      </c>
-      <c r="S12" s="4">
-        <v>44753</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B13" s="4">
-        <v>44652</v>
-      </c>
-      <c r="C13" s="4">
-        <v>44742</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="L13" s="5">
-        <v>164</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6">
-        <v>0.89</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="R13" s="4">
-        <v>44753</v>
-      </c>
-      <c r="S13" s="4">
-        <v>44753</v>
-      </c>
-      <c r="T13" s="10" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1357,22 +1342,23 @@
     <mergeCell ref="A6:T6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O57" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_114</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/xlsx/a69_f05UPPachuca.xlsx
+++ b/xlsx/a69_f05UPPachuca.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F8DD6A3-F292-4F0C-A3EF-DC1CA5882FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,12 +13,12 @@
   <definedNames>
     <definedName name="Hidden_114">Hidden_1!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
   <si>
     <t>44212</t>
   </si>
@@ -194,6 +188,9 @@
     <t>Descendente</t>
   </si>
   <si>
+    <t>Departamento de Evaluación y Estadistica (UPP)</t>
+  </si>
+  <si>
     <t>Incrementar la cobertura del sector educativo  en el nivel medio superior y superior para Estado de Hidalgo.</t>
   </si>
   <si>
@@ -203,9 +200,15 @@
     <t>Eficacia</t>
   </si>
   <si>
+    <t>Mide el porcentaje de atención a la demanda solicitada con respecto a los nuevos ingresos</t>
+  </si>
+  <si>
     <t>(Matricula de Nuevo Ingreso a primero (MTNI)/Solicitudes de Nuevo Ingreso a primero (STNI))x100</t>
   </si>
   <si>
+    <t>Estudiante</t>
+  </si>
+  <si>
     <t>Anual</t>
   </si>
   <si>
@@ -215,21 +218,18 @@
     <t>Otorgar una oferta educativa de calidad a la población hidalguense.</t>
   </si>
   <si>
-    <t>Mide el porcentaje de atención a la demanda solicitada con respecto a los nuevos ingresos</t>
-  </si>
-  <si>
     <t>Porcentaje de Profesores de Tiempo Completo (PTC) que participan en los Cuerpos Académicos de la Universidad Politécnica de Pachuca.</t>
   </si>
   <si>
     <t>Mide la cantidad de Profesores de Tiempo Completo que participan en los Cuerpos Académicos en formación, en procesos de consolidación y consolidados, respecto al total de Profesores de Tiempo Completo adscritos a la Universidad Politécnica de Pachuca</t>
   </si>
   <si>
+    <t xml:space="preserve">(Total de Profesores de Tiempo Completo que participan en los cuerpos académicos en la UPP (TPTCCAUPP)/ Total de Profesores de Tiempo Completo adscritos a la UPP (TPTCUPP))x100 </t>
+  </si>
+  <si>
     <t>Profesores de Tiempo Completo</t>
   </si>
   <si>
-    <t xml:space="preserve">(Total de Profesores de Tiempo Completo que participan en los cuerpos académicos en la UPP (TPTCCAUPP)/ Total de Profesores de Tiempo Completo adscritos a la UPP (TPTCUPP))x100 </t>
-  </si>
-  <si>
     <t>Cuatrimestral</t>
   </si>
   <si>
@@ -245,9 +245,6 @@
     <t>(Población de 18 a 22 años  del ciclo escolar (P (18-22)n)/ Matricula Total (MTn))x100</t>
   </si>
   <si>
-    <t>Estudiante</t>
-  </si>
-  <si>
     <t>Ciclo escolar</t>
   </si>
   <si>
@@ -269,58 +266,52 @@
     <t>Universidad Politécnica de Pachuca</t>
   </si>
   <si>
+    <t>Impartir servicios educativos con suficiencia, calidad y relevancia, que garanticen el acceso a los niveles educativos en igualdad y con recursos destinados a programas de impacto que incidan en la mejora de las condiciones de bienestar de las personas.</t>
+  </si>
+  <si>
     <t>Porcentaje de proyectos concluidos de investigación o transferencia tecnológica</t>
   </si>
   <si>
     <t>Mide el porcentaje de proyectos concluidos de investigación con respecto al total de proyectos de investigación o transferencia tecnológica en los que participa la institución.</t>
   </si>
   <si>
+    <t xml:space="preserve">(Total de proyectos concluidos de investigación o transferencia tecnológica (TPITTCF) / Total de proyectos de investigación o transferencia de  tecnología en los que participa la institución (TPIT))x100 </t>
+  </si>
+  <si>
     <t>Proyecto</t>
   </si>
   <si>
     <t>Universidad Politécnica de Pachuca - Dirección de Innovación, Investigación y Posgrado</t>
   </si>
   <si>
+    <t>Fortalecer la personal docente de educación básica en el Estado</t>
+  </si>
+  <si>
+    <t>Porcentaje de personal docente que obtiene resultados aprobatorios en las evaluaciones</t>
+  </si>
+  <si>
+    <t>Mide el número de docentes que en las evaluaciones obtienen resultados aprobatorios</t>
+  </si>
+  <si>
+    <t>(Total de docentes con resultados aprobatorios (TDA)/ Total de docentes evaluados (TDE))x100</t>
+  </si>
+  <si>
+    <t>Docente</t>
+  </si>
+  <si>
     <t>Universidad Politécnica de Pachuca - Secretaría Académica (UPP)</t>
   </si>
   <si>
-    <t>Fortalecer la personal docente de educación básica en el Estado</t>
-  </si>
-  <si>
-    <t>Porcentaje de personal docente que obtiene resultados aprobatorios en las evaluaciones</t>
-  </si>
-  <si>
-    <t>Mide el número de docentes que en las evaluaciones obtienen resultados aprobatorios</t>
-  </si>
-  <si>
-    <t>Docente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Total de proyectos concluidos de investigación o transferencia tecnológica (TPITTCF) / Total de proyectos de investigación o transferencia de  tecnología en los que participa la institución (TPIT))x100 </t>
-  </si>
-  <si>
-    <t>(Total de docentes con resultados aprobatorios (TDA)/ Total de docentes evaluados (TDE))x100</t>
-  </si>
-  <si>
-    <t>Impartir servicios educativos con suficiencia, calidad y relevancia, que garanticen el acceso a los niveles educativos en igualdad y con recursos destinados a programas de impacto que incidan en la mejora de las condiciones de bienestar de las personas.</t>
-  </si>
-  <si>
-    <t>Departamento de Evaluación y Estadísticas (UPP)</t>
-  </si>
-  <si>
     <t xml:space="preserve">
-Las metas ajustadas no fueron requeridas para este periodo. Las metas alcanzadas son del periodo abril-junio 2022. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Las metas ajustadas no fueron requeridas para este periodo.Las metas alcanzadas son del periodo abril-junio 2022. </t>
+Las metas ajustadas no fueron requeridas para este periodo.
+Metas alcanzadas son hasta septiembre 2022. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -341,6 +332,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -360,7 +358,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -383,19 +381,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -409,14 +416,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,39 +456,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -513,7 +523,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -557,175 +567,199 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="46.7109375" customWidth="1"/>
-    <col min="8" max="8" width="35" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" customWidth="1"/>
-    <col min="13" max="13" width="35.140625" customWidth="1"/>
-    <col min="14" max="14" width="56" customWidth="1"/>
-    <col min="15" max="15" width="34" customWidth="1"/>
-    <col min="16" max="16" width="47.42578125" customWidth="1"/>
-    <col min="17" max="17" width="81.5703125" customWidth="1"/>
-    <col min="18" max="18" width="24" customWidth="1"/>
-    <col min="19" max="19" width="32" customWidth="1"/>
-    <col min="20" max="20" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="63.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -750,7 +784,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:20" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -761,11 +795,11 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -829,7 +863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -977,36 +1011,36 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2022</v>
       </c>
-      <c r="B8" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44834</v>
+      <c r="B8" s="2">
+        <v>44835</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44926</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="K8" s="5">
         <v>0.47</v>
@@ -1014,59 +1048,59 @@
       <c r="L8" s="4">
         <v>1400</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="O8" s="4" t="s">
+      <c r="M8" s="5"/>
+      <c r="N8" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>54</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R8" s="3">
-        <v>44844</v>
-      </c>
-      <c r="S8" s="3">
-        <v>44844</v>
-      </c>
-      <c r="T8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" s="2">
+        <v>44936</v>
+      </c>
+      <c r="S8" s="2">
+        <v>44936</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="240" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>2022</v>
       </c>
-      <c r="B9" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C9" s="3">
-        <v>44834</v>
+      <c r="B9" s="2">
+        <v>44835</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44926</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K9" s="5">
         <v>0.59</v>
@@ -1074,59 +1108,59 @@
       <c r="L9" s="4">
         <v>88</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5">
+      <c r="M9" s="5"/>
+      <c r="N9" s="11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="3" t="s">
         <v>54</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R9" s="3">
-        <v>44844</v>
-      </c>
-      <c r="S9" s="3">
-        <v>44844</v>
-      </c>
-      <c r="T9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="2">
+        <v>44936</v>
+      </c>
+      <c r="S9" s="2">
+        <v>44936</v>
+      </c>
+      <c r="T9" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>2022</v>
       </c>
-      <c r="B10" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C10" s="3">
-        <v>44834</v>
+      <c r="B10" s="2">
+        <v>44835</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44926</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K10" s="5">
         <v>0.72</v>
@@ -1134,59 +1168,59 @@
       <c r="L10" s="4">
         <v>3990</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5">
+      <c r="M10" s="5"/>
+      <c r="N10" s="11">
         <v>0.72</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R10" s="3">
-        <v>44844</v>
-      </c>
-      <c r="S10" s="3">
-        <v>44844</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>95</v>
+        <v>64</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="2">
+        <v>44936</v>
+      </c>
+      <c r="S10" s="2">
+        <v>44936</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="240" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>2022</v>
       </c>
-      <c r="B11" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C11" s="3">
-        <v>44834</v>
+      <c r="B11" s="2">
+        <v>44835</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44926</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="I11" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="J11" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K11" s="5">
         <v>0.95</v>
@@ -1194,59 +1228,59 @@
       <c r="L11" s="4">
         <v>5</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="5">
-        <v>0.77</v>
-      </c>
-      <c r="O11" s="4" t="s">
+      <c r="M11" s="5"/>
+      <c r="N11" s="11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>54</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R11" s="3">
-        <v>44844</v>
-      </c>
-      <c r="S11" s="3">
-        <v>44844</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>95</v>
+        <v>81</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" s="2">
+        <v>44936</v>
+      </c>
+      <c r="S11" s="2">
+        <v>44936</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>2022</v>
       </c>
-      <c r="B12" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C12" s="3">
-        <v>44834</v>
+      <c r="B12" s="2">
+        <v>44835</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44926</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>83</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="K12" s="5">
         <v>7.0000000000000007E-2</v>
@@ -1254,59 +1288,59 @@
       <c r="L12" s="4">
         <v>5</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5">
+      <c r="M12" s="5"/>
+      <c r="N12" s="11">
         <v>0</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="3" t="s">
         <v>54</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R12" s="3">
-        <v>44844</v>
-      </c>
-      <c r="S12" s="3">
-        <v>44844</v>
-      </c>
-      <c r="T12" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" s="2">
+        <v>44936</v>
+      </c>
+      <c r="S12" s="2">
+        <v>44936</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>2022</v>
       </c>
-      <c r="B13" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C13" s="3">
-        <v>44834</v>
+      <c r="B13" s="2">
+        <v>44835</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44926</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>58</v>
+        <v>89</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>89</v>
+      <c r="I13" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13" s="5">
         <v>0.79</v>
@@ -1314,27 +1348,27 @@
       <c r="L13" s="4">
         <v>164</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="O13" s="4" t="s">
+      <c r="M13" s="5"/>
+      <c r="N13" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>54</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="R13" s="3">
-        <v>44844</v>
-      </c>
-      <c r="S13" s="3">
-        <v>44844</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>95</v>
+      <c r="Q13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" s="2">
+        <v>44936</v>
+      </c>
+      <c r="S13" s="2">
+        <v>44936</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1348,17 +1382,16 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O57" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O201">
       <formula1>Hidden_114</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/xlsx/a69_f05UPPachuca.xlsx
+++ b/xlsx/a69_f05UPPachuca.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="96">
   <si>
     <t>44212</t>
   </si>
@@ -304,7 +304,12 @@
   <si>
     <t xml:space="preserve">
 Las metas ajustadas no fueron requeridas para este periodo.
-Metas alcanzadas son hasta septiembre 2022. </t>
+Metas alcanzadas corresponden al cierre del ejercicio 2022. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Las metas ajustadas no fueron requeridas para este periodo.
+Metas alcanzadas son del 1er trimestre del ejercicio 2023. </t>
   </si>
 </sst>
 </file>
@@ -358,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -381,20 +386,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -411,17 +407,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -732,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,15 +735,15 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.42578125" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="24" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="23.5703125" customWidth="1"/>
     <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="41.5703125" bestFit="1" customWidth="1"/>
@@ -768,38 +759,38 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:20" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -926,28 +917,28 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1011,15 +1002,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="2">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="2">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>57</v>
@@ -1049,7 +1040,7 @@
         <v>1400</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="11">
+      <c r="N8" s="10">
         <v>0.38</v>
       </c>
       <c r="O8" s="3" t="s">
@@ -1058,28 +1049,28 @@
       <c r="P8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="11" t="s">
         <v>56</v>
       </c>
       <c r="R8" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S8" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="T8" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="240" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B9" s="2">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C9" s="2">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>65</v>
@@ -1109,8 +1100,8 @@
         <v>88</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="11">
-        <v>0.57999999999999996</v>
+      <c r="N9" s="10">
+        <v>0.61</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>54</v>
@@ -1118,28 +1109,28 @@
       <c r="P9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="11" t="s">
         <v>56</v>
       </c>
       <c r="R9" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S9" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="T9" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B10" s="2">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C10" s="2">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>57</v>
@@ -1169,8 +1160,8 @@
         <v>3990</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="11">
-        <v>0.72</v>
+      <c r="N10" s="10">
+        <v>0.77</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>54</v>
@@ -1178,28 +1169,28 @@
       <c r="P10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="11" t="s">
         <v>56</v>
       </c>
       <c r="R10" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S10" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="240" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B11" s="2">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C11" s="2">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>57</v>
@@ -1229,8 +1220,8 @@
         <v>5</v>
       </c>
       <c r="M11" s="5"/>
-      <c r="N11" s="11">
-        <v>1</v>
+      <c r="N11" s="10">
+        <v>0.27</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>54</v>
@@ -1238,28 +1229,28 @@
       <c r="P11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="Q11" s="11" t="s">
         <v>56</v>
       </c>
       <c r="R11" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S11" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="T11" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="210" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B12" s="2">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C12" s="2">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>82</v>
@@ -1289,7 +1280,7 @@
         <v>5</v>
       </c>
       <c r="M12" s="5"/>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
@@ -1298,28 +1289,28 @@
       <c r="P12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="Q12" s="11" t="s">
         <v>56</v>
       </c>
       <c r="R12" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S12" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="T12" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B13" s="2">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C13" s="2">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>88</v>
@@ -1349,8 +1340,8 @@
         <v>164</v>
       </c>
       <c r="M13" s="5"/>
-      <c r="N13" s="11">
-        <v>0.89</v>
+      <c r="N13" s="10">
+        <v>0</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>54</v>
@@ -1358,17 +1349,377 @@
       <c r="P13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="11" t="s">
         <v>56</v>
       </c>
       <c r="R13" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S13" s="2">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="T13" s="4" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1400</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" s="2">
+        <v>45026</v>
+      </c>
+      <c r="S14" s="2">
+        <v>45026</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="6" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="L15" s="4">
+        <v>88</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="10">
+        <v>0.62</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" s="2">
+        <v>45026</v>
+      </c>
+      <c r="S15" s="2">
+        <v>45026</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="L16" s="4">
+        <v>3990</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" s="2">
+        <v>45026</v>
+      </c>
+      <c r="S16" s="2">
+        <v>45026</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="L17" s="4">
+        <v>5</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="10">
+        <v>0.47</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" s="2">
+        <v>45026</v>
+      </c>
+      <c r="S17" s="2">
+        <v>45026</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L18" s="4">
+        <v>5</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" s="2">
+        <v>45026</v>
+      </c>
+      <c r="S18" s="2">
+        <v>45026</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="L19" s="4">
+        <v>164</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" s="2">
+        <v>45026</v>
+      </c>
+      <c r="S19" s="2">
+        <v>45026</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1382,7 +1733,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O147">
       <formula1>Hidden_114</formula1>
     </dataValidation>
   </dataValidations>

--- a/xlsx/a69_f05UPPachuca.xlsx
+++ b/xlsx/a69_f05UPPachuca.xlsx
@@ -363,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -386,11 +386,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -408,16 +417,28 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,7 +747,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,14 +757,14 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.42578125" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="24" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
     <col min="14" max="14" width="23.5703125" customWidth="1"/>
     <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="41.5703125" bestFit="1" customWidth="1"/>
@@ -759,38 +780,44 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:20" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -917,28 +944,28 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1040,7 +1067,7 @@
         <v>1400</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="10">
+      <c r="N8" s="7">
         <v>0.38</v>
       </c>
       <c r="O8" s="3" t="s">
@@ -1049,7 +1076,7 @@
       <c r="P8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="8" t="s">
         <v>56</v>
       </c>
       <c r="R8" s="2">
@@ -1100,7 +1127,7 @@
         <v>88</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="10">
+      <c r="N9" s="7">
         <v>0.61</v>
       </c>
       <c r="O9" s="3" t="s">
@@ -1109,7 +1136,7 @@
       <c r="P9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="8" t="s">
         <v>56</v>
       </c>
       <c r="R9" s="2">
@@ -1160,7 +1187,7 @@
         <v>3990</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="10">
+      <c r="N10" s="7">
         <v>0.77</v>
       </c>
       <c r="O10" s="3" t="s">
@@ -1169,7 +1196,7 @@
       <c r="P10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="8" t="s">
         <v>56</v>
       </c>
       <c r="R10" s="2">
@@ -1220,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="M11" s="5"/>
-      <c r="N11" s="10">
+      <c r="N11" s="7">
         <v>0.27</v>
       </c>
       <c r="O11" s="3" t="s">
@@ -1229,7 +1256,7 @@
       <c r="P11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="8" t="s">
         <v>56</v>
       </c>
       <c r="R11" s="2">
@@ -1280,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="M12" s="5"/>
-      <c r="N12" s="10">
+      <c r="N12" s="7">
         <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
@@ -1289,7 +1316,7 @@
       <c r="P12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="8" t="s">
         <v>56</v>
       </c>
       <c r="R12" s="2">
@@ -1340,7 +1367,7 @@
         <v>164</v>
       </c>
       <c r="M13" s="5"/>
-      <c r="N13" s="10">
+      <c r="N13" s="7">
         <v>0</v>
       </c>
       <c r="O13" s="3" t="s">
@@ -1349,7 +1376,7 @@
       <c r="P13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="8" t="s">
         <v>56</v>
       </c>
       <c r="R13" s="2">
@@ -1400,7 +1427,7 @@
         <v>1400</v>
       </c>
       <c r="M14" s="5"/>
-      <c r="N14" s="10">
+      <c r="N14" s="7">
         <v>0.31</v>
       </c>
       <c r="O14" s="3" t="s">
@@ -1409,7 +1436,7 @@
       <c r="P14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="8" t="s">
         <v>56</v>
       </c>
       <c r="R14" s="2">
@@ -1460,7 +1487,7 @@
         <v>88</v>
       </c>
       <c r="M15" s="5"/>
-      <c r="N15" s="10">
+      <c r="N15" s="7">
         <v>0.62</v>
       </c>
       <c r="O15" s="3" t="s">
@@ -1469,7 +1496,7 @@
       <c r="P15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="8" t="s">
         <v>56</v>
       </c>
       <c r="R15" s="2">
@@ -1520,7 +1547,7 @@
         <v>3990</v>
       </c>
       <c r="M16" s="5"/>
-      <c r="N16" s="10">
+      <c r="N16" s="7">
         <v>0.77</v>
       </c>
       <c r="O16" s="3" t="s">
@@ -1529,7 +1556,7 @@
       <c r="P16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="8" t="s">
         <v>56</v>
       </c>
       <c r="R16" s="2">
@@ -1580,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="M17" s="5"/>
-      <c r="N17" s="10">
+      <c r="N17" s="7">
         <v>0.47</v>
       </c>
       <c r="O17" s="3" t="s">
@@ -1589,7 +1616,7 @@
       <c r="P17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="8" t="s">
         <v>56</v>
       </c>
       <c r="R17" s="2">
@@ -1640,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="M18" s="5"/>
-      <c r="N18" s="10">
+      <c r="N18" s="7">
         <v>0.03</v>
       </c>
       <c r="O18" s="3" t="s">
@@ -1649,7 +1676,7 @@
       <c r="P18" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="8" t="s">
         <v>56</v>
       </c>
       <c r="R18" s="2">
@@ -1700,7 +1727,7 @@
         <v>164</v>
       </c>
       <c r="M19" s="5"/>
-      <c r="N19" s="10">
+      <c r="N19" s="7">
         <v>0.91</v>
       </c>
       <c r="O19" s="3" t="s">
@@ -1709,7 +1736,7 @@
       <c r="P19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="Q19" s="11" t="s">
+      <c r="Q19" s="8" t="s">
         <v>56</v>
       </c>
       <c r="R19" s="2">
@@ -1727,10 +1754,10 @@
     <mergeCell ref="A6:T6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G2:L2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O147">

--- a/xlsx/a69_f05UPPachuca.xlsx
+++ b/xlsx/a69_f05UPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\SIPOT\Vo. Bo. Uno 2do Tri 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{638D0D4D-567D-4581-8CA4-6EF109B2F177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6900"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
   <si>
     <t>44212</t>
   </si>
@@ -131,7 +137,7 @@
     <t>Fecha de término del periodo que se informa</t>
   </si>
   <si>
-    <t>Objetivo institucional</t>
+    <t>Objetivo institucional (Redactados con perspectiva de género)</t>
   </si>
   <si>
     <t>Nombre del(os) indicador(es)</t>
@@ -194,128 +200,120 @@
     <t>Incrementar la cobertura del sector educativo  en el nivel medio superior y superior para Estado de Hidalgo.</t>
   </si>
   <si>
+    <t>Otorgar una oferta educativa de calidad a la población hidalguense.</t>
+  </si>
+  <si>
+    <t>Impartir servicios educativos con suficiencia, calidad y relevancia, que garanticen el acceso a los niveles educativos en igualdad y con recursos destinados a programas de impacto que incidan en la mejora de las condiciones de bienestar de las personas.</t>
+  </si>
+  <si>
     <t>Porcentaje de Atención a la Demanda solicitada de la Universidad Politécnica de Pachuca.</t>
   </si>
   <si>
+    <t>Porcentaje de Profesores de Tiempo Completo (PTC) que participan en los Cuerpos Académicos de la Universidad Politécnica de Pachuca.</t>
+  </si>
+  <si>
+    <t>Porcentaje de Cobertura de la UPP</t>
+  </si>
+  <si>
+    <t>Porcentaje de acciones que contribuyen al incremento de la matrícula y calidad de la oferta educativa</t>
+  </si>
+  <si>
+    <t>Porcentaje de proyectos concluidos de investigación o transferencia tecnológica</t>
+  </si>
+  <si>
     <t>Eficacia</t>
   </si>
   <si>
     <t>Mide el porcentaje de atención a la demanda solicitada con respecto a los nuevos ingresos</t>
   </si>
   <si>
+    <t>Mide el porcentaje de población en edad escolar que es atendida por la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>Mide el porcentaje de acciones que contribuye al incremento de la matrícula y calidad de la oferta educativa que atiende la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>Mide el porcentaje de proyectos concluidos de investigación con respecto al total de proyectos de investigación o transferencia tecnológica en los que participa la institución.</t>
+  </si>
+  <si>
     <t>(Matricula de Nuevo Ingreso a primero (MTNI)/Solicitudes de Nuevo Ingreso a primero (STNI))x100</t>
   </si>
   <si>
+    <t>(Población de 18 a 22 años  del ciclo escolar (P (18-22)n)/ Matricula Total (MTn))x100</t>
+  </si>
+  <si>
+    <t>(Total de acciones realizadas que contribuyen al incremento de la matrícula y calidad de la oferta educativa /  Total de acciones definidas que contribuyen al incremento de la matrícula y calidad de la oferta )x100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Total de proyectos concluidos de investigación o transferencia tecnológica (TPITTCF) / Total de proyectos de investigación o transferencia de  tecnología en los que participa la institución (TPIT))x100 </t>
+  </si>
+  <si>
+    <t>(Total de docentes con resultados aprobatorios (TDA)/ Total de docentes evaluados (TDE))x100</t>
+  </si>
+  <si>
     <t>Estudiante</t>
   </si>
   <si>
+    <t>Acción</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
     <t>Anual</t>
   </si>
   <si>
+    <t>Cuatrimestral</t>
+  </si>
+  <si>
+    <t>Ciclo escolar</t>
+  </si>
+  <si>
+    <t>Anual (Ciclo Escolar)</t>
+  </si>
+  <si>
     <t>Universidad Politécnica de Pachuca - Dirección de Planeación (Departamento de Servicios escolares)</t>
   </si>
   <si>
-    <t>Otorgar una oferta educativa de calidad a la población hidalguense.</t>
-  </si>
-  <si>
-    <t>Porcentaje de Profesores de Tiempo Completo (PTC) que participan en los Cuerpos Académicos de la Universidad Politécnica de Pachuca.</t>
-  </si>
-  <si>
-    <t>Mide la cantidad de Profesores de Tiempo Completo que participan en los Cuerpos Académicos en formación, en procesos de consolidación y consolidados, respecto al total de Profesores de Tiempo Completo adscritos a la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Total de Profesores de Tiempo Completo que participan en los cuerpos académicos en la UPP (TPTCCAUPP)/ Total de Profesores de Tiempo Completo adscritos a la UPP (TPTCUPP))x100 </t>
-  </si>
-  <si>
-    <t>Profesores de Tiempo Completo</t>
-  </si>
-  <si>
-    <t>Cuatrimestral</t>
-  </si>
-  <si>
     <t>Universidad Politécnica de Pachuca - Dirección de Innovación, Investigación y Posgrado-Secretaría Administrativa (Departamento de Recursos Humanos)</t>
   </si>
   <si>
-    <t>Porcentaje de Cobertura de la UPP</t>
-  </si>
-  <si>
-    <t>Mide el porcentaje de población en edad escolar que es atendida por la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>(Población de 18 a 22 años  del ciclo escolar (P (18-22)n)/ Matricula Total (MTn))x100</t>
-  </si>
-  <si>
-    <t>Ciclo escolar</t>
-  </si>
-  <si>
-    <t>Porcentaje de acciones que contribuyen al incremento de la matrícula y calidad de la oferta educativa</t>
-  </si>
-  <si>
-    <t>Mide el porcentaje de acciones que contribuye al incremento de la matrícula y calidad de la oferta educativa que atiende la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>(Total de acciones realizadas que contribuyen al incremento de la matrícula y calidad de la oferta educativa /  Total de acciones definidas que contribuyen al incremento de la matrícula y calidad de la oferta )x100</t>
-  </si>
-  <si>
-    <t>Acción</t>
-  </si>
-  <si>
-    <t>Anual (Ciclo Escolar)</t>
-  </si>
-  <si>
-    <t>Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>Impartir servicios educativos con suficiencia, calidad y relevancia, que garanticen el acceso a los niveles educativos en igualdad y con recursos destinados a programas de impacto que incidan en la mejora de las condiciones de bienestar de las personas.</t>
-  </si>
-  <si>
-    <t>Porcentaje de proyectos concluidos de investigación o transferencia tecnológica</t>
-  </si>
-  <si>
-    <t>Mide el porcentaje de proyectos concluidos de investigación con respecto al total de proyectos de investigación o transferencia tecnológica en los que participa la institución.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Total de proyectos concluidos de investigación o transferencia tecnológica (TPITTCF) / Total de proyectos de investigación o transferencia de  tecnología en los que participa la institución (TPIT))x100 </t>
-  </si>
-  <si>
-    <t>Proyecto</t>
-  </si>
-  <si>
     <t>Universidad Politécnica de Pachuca - Dirección de Innovación, Investigación y Posgrado</t>
   </si>
   <si>
-    <t>Fortalecer la personal docente de educación básica en el Estado</t>
-  </si>
-  <si>
-    <t>Porcentaje de personal docente que obtiene resultados aprobatorios en las evaluaciones</t>
-  </si>
-  <si>
-    <t>Mide el número de docentes que en las evaluaciones obtienen resultados aprobatorios</t>
-  </si>
-  <si>
-    <t>(Total de docentes con resultados aprobatorios (TDA)/ Total de docentes evaluados (TDE))x100</t>
-  </si>
-  <si>
-    <t>Docente</t>
-  </si>
-  <si>
     <t>Universidad Politécnica de Pachuca - Secretaría Académica (UPP)</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Las metas ajustadas no fueron requeridas para este periodo.
-Metas alcanzadas corresponden al cierre del ejercicio 2022. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+    <t xml:space="preserve">El Area responsable atiende al supuesto 2 del artículo octavo de los Lineamientos Técnicos Generales.
 Las metas ajustadas no fueron requeridas para este periodo.
 Metas alcanzadas son del 1er trimestre del ejercicio 2023. </t>
+  </si>
+  <si>
+    <t>Personal docente</t>
+  </si>
+  <si>
+    <t>Mide la cantidad de personal docente de  Tiempo Completo que participan en los Cuerpos Académicos en formación, en procesos de consolidación y consolidados, respecto al total de personal docente  de Tiempo Completo adscritos a la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Total de personal docente  de Tiempo Completo que participan en los cuerpos académicos en la UPP (TPTCCAUPP)/ Total de personal docente  de Tiempo Completo adscritos a la UPP (TPTCUPP))x100 </t>
+  </si>
+  <si>
+    <t>Personal docente de Tiempo Completo</t>
+  </si>
+  <si>
+    <t>Porcentaje de personal docente que obtiene resultados aprobatorios en las evaluaciones</t>
+  </si>
+  <si>
+    <t>Mide el número de personal docente  que en las evaluaciones obtienen resultados aprobatorios</t>
+  </si>
+  <si>
+    <t>Fortalecer al personal docente de educación básica en el Estado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,7 +337,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -363,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -386,59 +383,41 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,9 +437,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -498,7 +477,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -570,7 +549,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -743,11 +722,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,23 +734,23 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="41.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="63.140625" customWidth="1"/>
+    <col min="20" max="20" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -780,44 +759,38 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:20" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -944,28 +917,28 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1030,35 +1003,35 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>2023</v>
       </c>
-      <c r="B8" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45016</v>
+      <c r="B8" s="3">
+        <v>45017</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45107</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="K8" s="5">
         <v>0.47</v>
@@ -1066,59 +1039,59 @@
       <c r="L8" s="4">
         <v>1400</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="O8" s="3" t="s">
+      <c r="M8" s="6"/>
+      <c r="N8" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>54</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="R8" s="2">
-        <v>45026</v>
-      </c>
-      <c r="S8" s="2">
-        <v>45026</v>
+      <c r="R8" s="3">
+        <v>45117</v>
+      </c>
+      <c r="S8" s="3">
+        <v>45117</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="240" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:20" ht="270" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>2023</v>
       </c>
-      <c r="B9" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45016</v>
+      <c r="B9" s="3">
+        <v>45017</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45107</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K9" s="5">
         <v>0.59</v>
@@ -1126,59 +1099,59 @@
       <c r="L9" s="4">
         <v>88</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="7">
-        <v>0.61</v>
-      </c>
-      <c r="O9" s="3" t="s">
+      <c r="M9" s="6"/>
+      <c r="N9" s="10">
+        <v>0.62</v>
+      </c>
+      <c r="O9" s="6" t="s">
         <v>54</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="R9" s="2">
-        <v>45026</v>
-      </c>
-      <c r="S9" s="2">
-        <v>45026</v>
+      <c r="R9" s="3">
+        <v>45117</v>
+      </c>
+      <c r="S9" s="3">
+        <v>45117</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>2023</v>
       </c>
-      <c r="B10" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C10" s="2">
-        <v>45016</v>
+      <c r="B10" s="3">
+        <v>45017</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45107</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K10" s="5">
         <v>0.72</v>
@@ -1186,59 +1159,59 @@
       <c r="L10" s="4">
         <v>3990</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="7">
+      <c r="M10" s="6"/>
+      <c r="N10" s="10">
         <v>0.77</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="6" t="s">
         <v>54</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="R10" s="2">
-        <v>45026</v>
-      </c>
-      <c r="S10" s="2">
-        <v>45026</v>
+      <c r="R10" s="3">
+        <v>45117</v>
+      </c>
+      <c r="S10" s="3">
+        <v>45117</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="240" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>2023</v>
       </c>
-      <c r="B11" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C11" s="2">
-        <v>45016</v>
+      <c r="B11" s="3">
+        <v>45017</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45107</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="J11" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K11" s="5">
         <v>0.95</v>
@@ -1246,59 +1219,59 @@
       <c r="L11" s="4">
         <v>5</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O11" s="3" t="s">
+      <c r="M11" s="6"/>
+      <c r="N11" s="10">
+        <v>0.47</v>
+      </c>
+      <c r="O11" s="6" t="s">
         <v>54</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="R11" s="2">
-        <v>45026</v>
-      </c>
-      <c r="S11" s="2">
-        <v>45026</v>
+      <c r="R11" s="3">
+        <v>45117</v>
+      </c>
+      <c r="S11" s="3">
+        <v>45117</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="210" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>2023</v>
       </c>
-      <c r="B12" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C12" s="2">
-        <v>45016</v>
+      <c r="B12" s="3">
+        <v>45017</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45107</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="K12" s="5">
         <v>7.0000000000000007E-2</v>
@@ -1306,59 +1279,59 @@
       <c r="L12" s="4">
         <v>5</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
+      <c r="M12" s="6"/>
+      <c r="N12" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="O12" s="6" t="s">
         <v>54</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="R12" s="2">
-        <v>45026</v>
-      </c>
-      <c r="S12" s="2">
-        <v>45026</v>
+      <c r="R12" s="3">
+        <v>45117</v>
+      </c>
+      <c r="S12" s="3">
+        <v>45117</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>2023</v>
       </c>
-      <c r="B13" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C13" s="2">
-        <v>45016</v>
+      <c r="B13" s="3">
+        <v>45017</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45107</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>59</v>
+        <v>91</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>92</v>
+        <v>74</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="5">
         <v>0.79</v>
@@ -1366,387 +1339,27 @@
       <c r="L13" s="4">
         <v>164</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3" t="s">
+      <c r="M13" s="6"/>
+      <c r="N13" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>54</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="R13" s="2">
-        <v>45026</v>
-      </c>
-      <c r="S13" s="2">
-        <v>45026</v>
+      <c r="R13" s="3">
+        <v>45117</v>
+      </c>
+      <c r="S13" s="3">
+        <v>45117</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B14" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C14" s="2">
-        <v>45016</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0.47</v>
-      </c>
-      <c r="L14" s="4">
-        <v>1400</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="7">
-        <v>0.31</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R14" s="2">
-        <v>45026</v>
-      </c>
-      <c r="S14" s="2">
-        <v>45026</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="6" customFormat="1" ht="240" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B15" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C15" s="2">
-        <v>45016</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="L15" s="4">
-        <v>88</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="7">
-        <v>0.62</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R15" s="2">
-        <v>45026</v>
-      </c>
-      <c r="S15" s="2">
-        <v>45026</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B16" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C16" s="2">
-        <v>45016</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="L16" s="4">
-        <v>3990</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="7">
-        <v>0.77</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R16" s="2">
-        <v>45026</v>
-      </c>
-      <c r="S16" s="2">
-        <v>45026</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" ht="240" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B17" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C17" s="2">
-        <v>45016</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="L17" s="4">
-        <v>5</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R17" s="2">
-        <v>45026</v>
-      </c>
-      <c r="S17" s="2">
-        <v>45026</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B18" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C18" s="2">
-        <v>45016</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L18" s="4">
-        <v>5</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R18" s="2">
-        <v>45026</v>
-      </c>
-      <c r="S18" s="2">
-        <v>45026</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B19" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C19" s="2">
-        <v>45016</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0.79</v>
-      </c>
-      <c r="L19" s="4">
-        <v>164</v>
-      </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="7">
-        <v>0.91</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R19" s="2">
-        <v>45026</v>
-      </c>
-      <c r="S19" s="2">
-        <v>45026</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1754,22 +1367,23 @@
     <mergeCell ref="A6:T6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O147">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O201" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_114</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
